--- a/input_data/blanks/blanks_info.xlsx
+++ b/input_data/blanks/blanks_info.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/blanks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/blanks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9C507D-20F4-E04B-9129-0666D09CDA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B21954-F242-2B4B-8B98-625240AF3225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -58,28 +58,28 @@
     <t>ПЛАН</t>
   </si>
   <si>
-    <t>31 янв.</t>
-  </si>
-  <si>
-    <t>01 февр.</t>
-  </si>
-  <si>
-    <t>02 февр.</t>
-  </si>
-  <si>
-    <t>03 февр.</t>
-  </si>
-  <si>
-    <t>04 февр.</t>
-  </si>
-  <si>
-    <t>05 февр.</t>
-  </si>
-  <si>
-    <t>06 февр.</t>
-  </si>
-  <si>
     <t>07 февр.</t>
+  </si>
+  <si>
+    <t>08 февр.</t>
+  </si>
+  <si>
+    <t>09 февр.</t>
+  </si>
+  <si>
+    <t>10 февр.</t>
+  </si>
+  <si>
+    <t>11 февр.</t>
+  </si>
+  <si>
+    <t>12 февр.</t>
+  </si>
+  <si>
+    <t>13 февр.</t>
+  </si>
+  <si>
+    <t>14 февр.</t>
   </si>
   <si>
     <t>ОСТ</t>
@@ -1416,8 +1416,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="00&quot; февр.&quot;"/>
-    <numFmt numFmtId="165" formatCode="0&quot; янв.&quot;"/>
+    <numFmt numFmtId="164" formatCode="0&quot; февр.&quot;"/>
+    <numFmt numFmtId="165" formatCode="00&quot; февр.&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1574,14 +1574,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1982,8 +1982,8 @@
     <col min="26" max="26" width="6.25" style="1" customWidth="1" outlineLevel="1"/>
     <col min="27" max="27" width="8.25" style="1" customWidth="1"/>
     <col min="28" max="28" width="7.75" style="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="36" width="12.25" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="33" width="12.25" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="36" width="15.25" style="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -3196,55 +3196,55 @@
         <v>39</v>
       </c>
       <c r="I15" s="6">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J15" s="6">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
       </c>
       <c r="L15" s="6">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M15" s="6">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="O15" s="6">
-        <v>83</v>
+      <c r="O15" s="10">
+        <v>69</v>
       </c>
       <c r="P15" s="6">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Q15" s="6">
         <v>0</v>
       </c>
-      <c r="R15" s="6">
-        <v>67</v>
+      <c r="R15" s="10">
+        <v>76</v>
       </c>
       <c r="S15" s="6">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="T15" s="6">
         <v>0</v>
       </c>
       <c r="U15" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V15" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W15" s="6">
         <v>0</v>
       </c>
       <c r="X15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>1</v>
       </c>
       <c r="Z15" s="6">
         <v>0</v>
@@ -3286,55 +3286,55 @@
         <v>39</v>
       </c>
       <c r="I16" s="6">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="J16" s="6">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="K16" s="6">
         <v>0</v>
       </c>
       <c r="L16" s="6">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M16" s="6">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N16" s="6">
         <v>0</v>
       </c>
       <c r="O16" s="6">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="P16" s="6">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="Q16" s="6">
         <v>0</v>
       </c>
       <c r="R16" s="6">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="S16" s="6">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="T16" s="6">
         <v>0</v>
       </c>
       <c r="U16" s="6">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="V16" s="6">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="W16" s="6">
         <v>0</v>
       </c>
       <c r="X16" s="6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y16" s="6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Z16" s="6">
         <v>0</v>
@@ -3910,55 +3910,55 @@
         <v>39</v>
       </c>
       <c r="I23" s="6">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J23" s="6">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K23" s="6">
         <v>56</v>
       </c>
       <c r="L23" s="6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M23" s="6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N23" s="6">
         <v>0</v>
       </c>
       <c r="O23" s="6">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P23" s="6">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Q23" s="6">
         <v>0</v>
       </c>
       <c r="R23" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S23" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T23" s="6">
         <v>0</v>
       </c>
       <c r="U23" s="6">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="V23" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W23" s="6">
         <v>56</v>
       </c>
       <c r="X23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>2</v>
       </c>
       <c r="Z23" s="6">
         <v>0</v>
@@ -4000,19 +4000,19 @@
         <v>39</v>
       </c>
       <c r="I24" s="6">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J24" s="6">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K24" s="6">
         <v>0</v>
       </c>
       <c r="L24" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M24" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N24" s="6">
         <v>0</v>
@@ -4036,19 +4036,19 @@
         <v>0</v>
       </c>
       <c r="U24" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V24" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W24" s="6">
         <v>0</v>
       </c>
       <c r="X24" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y24" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z24" s="6">
         <v>0</v>
@@ -4090,22 +4090,22 @@
         <v>39</v>
       </c>
       <c r="I25" s="6">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J25" s="6">
         <v>240</v>
       </c>
       <c r="K25" s="6">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L25" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M25" s="6">
         <v>10</v>
       </c>
       <c r="N25" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O25" s="6">
         <v>166</v>
@@ -4117,22 +4117,22 @@
         <v>0</v>
       </c>
       <c r="R25" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S25" s="7">
         <v>0</v>
       </c>
       <c r="T25" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U25" s="6">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V25" s="6">
         <v>74</v>
       </c>
       <c r="W25" s="6">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X25" s="6">
         <v>15</v>
@@ -4356,55 +4356,55 @@
         <v>39</v>
       </c>
       <c r="I28" s="6">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="J28" s="6">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="K28" s="6">
         <v>5</v>
       </c>
       <c r="L28" s="6">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="M28" s="6">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="N28" s="6">
         <v>0</v>
       </c>
       <c r="O28" s="6">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="P28" s="6">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="Q28" s="6">
         <v>5</v>
       </c>
       <c r="R28" s="6">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="S28" s="6">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="T28" s="6">
         <v>0</v>
       </c>
       <c r="U28" s="6">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V28" s="6">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W28" s="6">
         <v>0</v>
       </c>
       <c r="X28" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y28" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z28" s="6">
         <v>0</v>
@@ -4445,56 +4445,56 @@
       <c r="H29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="10">
-        <v>1104</v>
-      </c>
-      <c r="J29" s="10">
-        <v>1104</v>
+      <c r="I29" s="11">
+        <v>1052</v>
+      </c>
+      <c r="J29" s="11">
+        <v>1052</v>
       </c>
       <c r="K29" s="6">
         <v>0</v>
       </c>
       <c r="L29" s="6">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="M29" s="6">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="N29" s="6">
         <v>0</v>
       </c>
       <c r="O29" s="6">
-        <v>759</v>
+        <v>687</v>
       </c>
       <c r="P29" s="6">
-        <v>759</v>
+        <v>687</v>
       </c>
       <c r="Q29" s="6">
         <v>0</v>
       </c>
       <c r="R29" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S29" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T29" s="6">
         <v>0</v>
       </c>
       <c r="U29" s="6">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="V29" s="6">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="W29" s="6">
         <v>0</v>
       </c>
       <c r="X29" s="6">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="Y29" s="6">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="Z29" s="6">
         <v>0</v>
@@ -4539,10 +4539,10 @@
         <v>308</v>
       </c>
       <c r="J30" s="6">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K30" s="6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L30" s="6">
         <v>20</v>
@@ -4554,10 +4554,10 @@
         <v>20</v>
       </c>
       <c r="O30" s="6">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="P30" s="6">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="Q30" s="6">
         <v>0</v>
@@ -4572,13 +4572,13 @@
         <v>15</v>
       </c>
       <c r="U30" s="6">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="V30" s="6">
         <v>205</v>
       </c>
       <c r="W30" s="6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="X30" s="6">
         <v>5</v>
@@ -4892,55 +4892,55 @@
         <v>39</v>
       </c>
       <c r="I34" s="6">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="J34" s="6">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="K34" s="6">
         <v>155</v>
       </c>
       <c r="L34" s="6">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="M34" s="6">
+        <v>25</v>
       </c>
       <c r="N34" s="6">
         <v>0</v>
       </c>
       <c r="O34" s="6">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="P34" s="6">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="Q34" s="6">
         <v>40</v>
       </c>
       <c r="R34" s="6">
-        <v>0</v>
-      </c>
-      <c r="S34" s="7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="S34" s="6">
+        <v>10</v>
       </c>
       <c r="T34" s="6">
         <v>0</v>
       </c>
       <c r="U34" s="6">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="V34" s="6">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="W34" s="6">
         <v>115</v>
       </c>
       <c r="X34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="7">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>15</v>
       </c>
       <c r="Z34" s="6">
         <v>0</v>
@@ -5070,37 +5070,37 @@
         <v>39</v>
       </c>
       <c r="I36" s="6">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="J36" s="6">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="K36" s="6">
         <v>0</v>
       </c>
       <c r="L36" s="6">
-        <v>0</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="M36" s="6">
+        <v>12</v>
       </c>
       <c r="N36" s="6">
         <v>0</v>
       </c>
       <c r="O36" s="6">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="P36" s="6">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="Q36" s="6">
         <v>0</v>
       </c>
       <c r="R36" s="6">
-        <v>0</v>
-      </c>
-      <c r="S36" s="7">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="S36" s="6">
+        <v>12</v>
       </c>
       <c r="T36" s="6">
         <v>0</v>
@@ -5158,37 +5158,37 @@
         <v>39</v>
       </c>
       <c r="I37" s="6">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="J37" s="6">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="K37" s="6">
         <v>0</v>
       </c>
       <c r="L37" s="6">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="M37" s="6">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N37" s="6">
         <v>0</v>
       </c>
       <c r="O37" s="6">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="P37" s="6">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="Q37" s="6">
         <v>0</v>
       </c>
       <c r="R37" s="6">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="S37" s="6">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="T37" s="6">
         <v>0</v>
@@ -5336,37 +5336,37 @@
         <v>70</v>
       </c>
       <c r="I39" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J39" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K39" s="6">
         <v>0</v>
       </c>
       <c r="L39" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M39" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N39" s="6">
         <v>0</v>
       </c>
       <c r="O39" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P39" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="6">
         <v>0</v>
       </c>
       <c r="R39" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S39" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T39" s="6">
         <v>0</v>
@@ -5426,37 +5426,37 @@
         <v>70</v>
       </c>
       <c r="I40" s="6">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J40" s="6">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K40" s="6">
         <v>0</v>
       </c>
       <c r="L40" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M40" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N40" s="6">
         <v>0</v>
       </c>
       <c r="O40" s="6">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P40" s="6">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="6">
         <v>0</v>
       </c>
       <c r="R40" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S40" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T40" s="6">
         <v>0</v>
@@ -5513,10 +5513,10 @@
       <c r="H41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="11">
         <v>1110</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="11">
         <v>1013</v>
       </c>
       <c r="K41" s="6">
@@ -5604,37 +5604,37 @@
         <v>39</v>
       </c>
       <c r="I42" s="6">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="J42" s="6">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="K42" s="6">
         <v>0</v>
       </c>
       <c r="L42" s="6">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="M42" s="6">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="N42" s="6">
         <v>0</v>
       </c>
-      <c r="O42" s="6">
-        <v>74</v>
+      <c r="O42" s="10">
+        <v>50</v>
       </c>
       <c r="P42" s="6">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="Q42" s="6">
         <v>0</v>
       </c>
-      <c r="R42" s="6">
-        <v>43</v>
+      <c r="R42" s="10">
+        <v>67</v>
       </c>
       <c r="S42" s="6">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="T42" s="6">
         <v>0</v>
@@ -5681,7 +5681,7 @@
       <c r="D43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="12" t="s">
         <v>98</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -5693,70 +5693,80 @@
       <c r="H43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I43" s="6">
-        <v>239</v>
+      <c r="I43" s="10">
+        <v>146</v>
       </c>
       <c r="J43" s="6">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="K43" s="6">
         <v>0</v>
       </c>
-      <c r="L43" s="6">
-        <v>155</v>
+      <c r="L43" s="10">
+        <v>247</v>
       </c>
       <c r="M43" s="6">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="N43" s="6">
         <v>0</v>
       </c>
-      <c r="O43" s="6">
-        <v>150</v>
+      <c r="O43" s="10">
+        <v>84</v>
       </c>
       <c r="P43" s="6">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="Q43" s="6">
         <v>0</v>
       </c>
-      <c r="R43" s="6">
-        <v>88</v>
+      <c r="R43" s="10">
+        <v>153</v>
       </c>
       <c r="S43" s="6">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="T43" s="6">
         <v>0</v>
       </c>
-      <c r="U43" s="6">
-        <v>89</v>
+      <c r="U43" s="10">
+        <v>62</v>
       </c>
       <c r="V43" s="6">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="W43" s="6">
         <v>0</v>
       </c>
-      <c r="X43" s="6">
-        <v>67</v>
+      <c r="X43" s="10">
+        <v>94</v>
       </c>
       <c r="Y43" s="6">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="Z43" s="6">
         <v>0</v>
       </c>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
+      <c r="AA43" s="6">
+        <v>8</v>
+      </c>
+      <c r="AB43" s="13">
+        <v>3</v>
+      </c>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
+      <c r="AH43" s="14">
+        <v>12</v>
+      </c>
+      <c r="AI43" s="14">
+        <v>13</v>
+      </c>
+      <c r="AJ43" s="14">
+        <v>14</v>
+      </c>
     </row>
     <row r="44" spans="1:36" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
@@ -5859,7 +5869,7 @@
       <c r="D45" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="4" t="s">
         <v>101</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -5871,41 +5881,43 @@
       <c r="H45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I45" s="12">
-        <v>23</v>
+      <c r="I45" s="6">
+        <v>384</v>
       </c>
       <c r="J45" s="6">
-        <v>8</v>
+        <v>369</v>
       </c>
       <c r="K45" s="6">
         <v>15</v>
       </c>
-      <c r="L45" s="12">
-        <v>65</v>
+      <c r="L45" s="6">
+        <v>130</v>
       </c>
       <c r="M45" s="6">
         <v>40</v>
       </c>
       <c r="N45" s="6">
-        <v>25</v>
-      </c>
-      <c r="O45" s="12">
-        <v>0</v>
-      </c>
-      <c r="P45" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="O45" s="6">
+        <v>361</v>
+      </c>
+      <c r="P45" s="6">
+        <v>361</v>
+      </c>
       <c r="Q45" s="6">
         <v>0</v>
       </c>
-      <c r="R45" s="12">
-        <v>20</v>
+      <c r="R45" s="6">
+        <v>85</v>
       </c>
       <c r="S45" s="6">
         <v>10</v>
       </c>
       <c r="T45" s="6">
-        <v>10</v>
-      </c>
-      <c r="U45" s="12">
+        <v>75</v>
+      </c>
+      <c r="U45" s="10">
         <v>23</v>
       </c>
       <c r="V45" s="6">
@@ -5914,7 +5926,7 @@
       <c r="W45" s="6">
         <v>15</v>
       </c>
-      <c r="X45" s="12">
+      <c r="X45" s="10">
         <v>45</v>
       </c>
       <c r="Y45" s="6">
@@ -6050,55 +6062,55 @@
         <v>39</v>
       </c>
       <c r="I47" s="6">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="J47" s="6">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="K47" s="6">
         <v>0</v>
       </c>
       <c r="L47" s="6">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="M47" s="6">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N47" s="6">
         <v>0</v>
       </c>
       <c r="O47" s="6">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P47" s="6">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q47" s="6">
         <v>0</v>
       </c>
       <c r="R47" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S47" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T47" s="6">
         <v>0</v>
       </c>
       <c r="U47" s="6">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="V47" s="6">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="W47" s="6">
         <v>0</v>
       </c>
       <c r="X47" s="6">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Y47" s="6">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Z47" s="6">
         <v>0</v>
@@ -6410,19 +6422,19 @@
         <v>39</v>
       </c>
       <c r="I51" s="6">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J51" s="6">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K51" s="6">
         <v>0</v>
       </c>
       <c r="L51" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M51" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N51" s="6">
         <v>0</v>
@@ -6446,19 +6458,19 @@
         <v>0</v>
       </c>
       <c r="U51" s="6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V51" s="6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W51" s="6">
         <v>0</v>
       </c>
       <c r="X51" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y51" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z51" s="6">
         <v>0</v>
@@ -6500,22 +6512,22 @@
         <v>39</v>
       </c>
       <c r="I52" s="6">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="J52" s="6">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="K52" s="6">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L52" s="6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M52" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N52" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O52" s="6">
         <v>555</v>
@@ -6536,22 +6548,22 @@
         <v>10</v>
       </c>
       <c r="U52" s="6">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="V52" s="6">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="W52" s="6">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X52" s="6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y52" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z52" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
@@ -6847,38 +6859,38 @@
       <c r="H56" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I56" s="10">
-        <v>1124</v>
-      </c>
-      <c r="J56" s="10">
-        <v>1114</v>
+      <c r="I56" s="11">
+        <v>1115</v>
+      </c>
+      <c r="J56" s="11">
+        <v>1105</v>
       </c>
       <c r="K56" s="6">
         <v>10</v>
       </c>
       <c r="L56" s="6">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M56" s="6">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N56" s="6">
         <v>0</v>
       </c>
-      <c r="O56" s="10">
-        <v>1023</v>
-      </c>
-      <c r="P56" s="10">
-        <v>1013</v>
+      <c r="O56" s="11">
+        <v>1014</v>
+      </c>
+      <c r="P56" s="11">
+        <v>1004</v>
       </c>
       <c r="Q56" s="6">
         <v>10</v>
       </c>
       <c r="R56" s="6">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="S56" s="6">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="T56" s="6">
         <v>0</v>
@@ -6938,58 +6950,58 @@
         <v>39</v>
       </c>
       <c r="I57" s="6">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="J57" s="6">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="K57" s="6">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L57" s="6">
+        <v>68</v>
+      </c>
+      <c r="M57" s="6">
+        <v>32</v>
+      </c>
+      <c r="N57" s="6">
         <v>36</v>
       </c>
-      <c r="M57" s="6">
-        <v>2</v>
-      </c>
-      <c r="N57" s="6">
-        <v>34</v>
-      </c>
       <c r="O57" s="6">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="P57" s="6">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="Q57" s="6">
         <v>0</v>
       </c>
       <c r="R57" s="6">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="S57" s="6">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="T57" s="6">
         <v>20</v>
       </c>
       <c r="U57" s="6">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V57" s="6">
         <v>114</v>
       </c>
       <c r="W57" s="6">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X57" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y57" s="7">
         <v>0</v>
       </c>
       <c r="Z57" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
@@ -7028,55 +7040,55 @@
         <v>39</v>
       </c>
       <c r="I58" s="6">
-        <v>825</v>
+        <v>759</v>
       </c>
       <c r="J58" s="6">
-        <v>825</v>
+        <v>759</v>
       </c>
       <c r="K58" s="6">
         <v>0</v>
       </c>
       <c r="L58" s="6">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="M58" s="6">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="N58" s="6">
         <v>0</v>
       </c>
       <c r="O58" s="6">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P58" s="6">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Q58" s="6">
         <v>0</v>
       </c>
       <c r="R58" s="6">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="S58" s="6">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T58" s="6">
         <v>0</v>
       </c>
       <c r="U58" s="6">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="V58" s="6">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="W58" s="6">
         <v>0</v>
       </c>
       <c r="X58" s="6">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="Y58" s="6">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="Z58" s="6">
         <v>0</v>
@@ -7118,22 +7130,22 @@
         <v>39</v>
       </c>
       <c r="I59" s="6">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J59" s="6">
         <v>317</v>
       </c>
       <c r="K59" s="6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L59" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
       </c>
       <c r="N59" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O59" s="6">
         <v>224</v>
@@ -7154,22 +7166,22 @@
         <v>0</v>
       </c>
       <c r="U59" s="6">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="V59" s="6">
         <v>105</v>
       </c>
       <c r="W59" s="6">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X59" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y59" s="7">
         <v>0</v>
       </c>
       <c r="Z59" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
@@ -7382,37 +7394,37 @@
         <v>39</v>
       </c>
       <c r="I62" s="6">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="J62" s="6">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="K62" s="6">
         <v>134</v>
       </c>
       <c r="L62" s="6">
-        <v>10</v>
-      </c>
-      <c r="M62" s="7">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="M62" s="6">
+        <v>40</v>
       </c>
       <c r="N62" s="6">
         <v>10</v>
       </c>
       <c r="O62" s="6">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="P62" s="6">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="Q62" s="6">
         <v>0</v>
       </c>
       <c r="R62" s="6">
-        <v>10</v>
-      </c>
-      <c r="S62" s="7">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="S62" s="6">
+        <v>40</v>
       </c>
       <c r="T62" s="6">
         <v>10</v>
@@ -7562,19 +7574,19 @@
         <v>39</v>
       </c>
       <c r="I64" s="6">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="J64" s="6">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="K64" s="6">
         <v>0</v>
       </c>
       <c r="L64" s="6">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="M64" s="6">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="N64" s="6">
         <v>0</v>
@@ -7598,19 +7610,19 @@
         <v>0</v>
       </c>
       <c r="U64" s="6">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="V64" s="6">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="W64" s="6">
         <v>0</v>
       </c>
       <c r="X64" s="6">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Y64" s="6">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Z64" s="6">
         <v>0</v>
@@ -7775,14 +7787,14 @@
       <c r="T66" s="6">
         <v>0</v>
       </c>
-      <c r="U66" s="12">
+      <c r="U66" s="10">
         <v>0</v>
       </c>
       <c r="V66" s="9"/>
       <c r="W66" s="6">
         <v>0</v>
       </c>
-      <c r="X66" s="12">
+      <c r="X66" s="10">
         <v>2</v>
       </c>
       <c r="Y66" s="6">
@@ -7828,28 +7840,28 @@
         <v>39</v>
       </c>
       <c r="I67" s="6">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J67" s="6">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="K67" s="6">
         <v>10</v>
       </c>
       <c r="L67" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M67" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N67" s="6">
         <v>0</v>
       </c>
       <c r="O67" s="6">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="P67" s="6">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="Q67" s="6">
         <v>10</v>
@@ -7864,19 +7876,19 @@
         <v>0</v>
       </c>
       <c r="U67" s="6">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="V67" s="6">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="W67" s="6">
         <v>0</v>
       </c>
       <c r="X67" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Y67" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Z67" s="6">
         <v>0</v>
@@ -8024,10 +8036,10 @@
         <v>0</v>
       </c>
       <c r="O69" s="6">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="P69" s="6">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="Q69" s="6">
         <v>0</v>
@@ -8042,9 +8054,11 @@
         <v>0</v>
       </c>
       <c r="U69" s="6">
-        <v>71</v>
-      </c>
-      <c r="V69" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="V69" s="6">
+        <v>50</v>
+      </c>
       <c r="W69" s="6">
         <v>71</v>
       </c>
@@ -8273,10 +8287,10 @@
         <v>352</v>
       </c>
       <c r="J72" s="6">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="K72" s="6">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L72" s="6">
         <v>26</v>
@@ -8288,10 +8302,10 @@
         <v>26</v>
       </c>
       <c r="O72" s="6">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P72" s="6">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="Q72" s="6">
         <v>0</v>
@@ -8306,13 +8320,13 @@
         <v>0</v>
       </c>
       <c r="U72" s="6">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="V72" s="6">
         <v>155</v>
       </c>
       <c r="W72" s="6">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="X72" s="6">
         <v>26</v>
@@ -8804,37 +8818,37 @@
         <v>70</v>
       </c>
       <c r="I78" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J78" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K78" s="6">
         <v>1</v>
       </c>
       <c r="L78" s="6">
-        <v>0</v>
-      </c>
-      <c r="M78" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M78" s="6">
+        <v>1</v>
       </c>
       <c r="N78" s="6">
         <v>0</v>
       </c>
       <c r="O78" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P78" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q78" s="6">
         <v>1</v>
       </c>
       <c r="R78" s="6">
-        <v>0</v>
-      </c>
-      <c r="S78" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S78" s="6">
+        <v>1</v>
       </c>
       <c r="T78" s="6">
         <v>0</v>
@@ -9338,19 +9352,19 @@
         <v>39</v>
       </c>
       <c r="I84" s="6">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J84" s="6">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K84" s="6">
         <v>0</v>
       </c>
       <c r="L84" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M84" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N84" s="6">
         <v>0</v>
@@ -9374,19 +9388,19 @@
         <v>0</v>
       </c>
       <c r="U84" s="6">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="V84" s="6">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W84" s="6">
         <v>0</v>
       </c>
       <c r="X84" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y84" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z84" s="6">
         <v>0</v>
@@ -9883,14 +9897,14 @@
       <c r="N90" s="6">
         <v>0</v>
       </c>
-      <c r="O90" s="12">
+      <c r="O90" s="10">
         <v>0</v>
       </c>
       <c r="P90" s="9"/>
       <c r="Q90" s="6">
         <v>0</v>
       </c>
-      <c r="R90" s="12">
+      <c r="R90" s="10">
         <v>4</v>
       </c>
       <c r="S90" s="6">
@@ -9954,20 +9968,20 @@
         <v>39</v>
       </c>
       <c r="I91" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L91" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M91" s="7">
         <v>0</v>
       </c>
       <c r="N91" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O91" s="6">
         <v>0</v>
@@ -9986,20 +10000,20 @@
         <v>0</v>
       </c>
       <c r="U91" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="V91" s="9"/>
       <c r="W91" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X91" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y91" s="7">
         <v>0</v>
       </c>
       <c r="Z91" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA91" s="8"/>
       <c r="AB91" s="8"/>
@@ -10639,7 +10653,7 @@
       <c r="D99" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="12" t="s">
         <v>171</v>
       </c>
       <c r="F99" s="4" t="s">
@@ -10651,56 +10665,54 @@
       <c r="H99" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I99" s="6">
-        <v>15</v>
+      <c r="I99" s="10">
+        <v>9</v>
       </c>
       <c r="J99" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K99" s="6">
         <v>0</v>
       </c>
-      <c r="L99" s="6">
-        <v>11</v>
+      <c r="L99" s="10">
+        <v>17</v>
       </c>
       <c r="M99" s="6">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N99" s="6">
         <v>0</v>
       </c>
-      <c r="O99" s="12">
-        <v>2</v>
-      </c>
-      <c r="P99" s="6">
-        <v>2</v>
-      </c>
+      <c r="O99" s="10">
+        <v>0</v>
+      </c>
+      <c r="P99" s="9"/>
       <c r="Q99" s="6">
         <v>0</v>
       </c>
-      <c r="R99" s="12">
-        <v>5</v>
+      <c r="R99" s="10">
+        <v>7</v>
       </c>
       <c r="S99" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T99" s="6">
         <v>0</v>
       </c>
-      <c r="U99" s="6">
-        <v>13</v>
+      <c r="U99" s="10">
+        <v>9</v>
       </c>
       <c r="V99" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="W99" s="6">
         <v>0</v>
       </c>
-      <c r="X99" s="6">
-        <v>6</v>
+      <c r="X99" s="10">
+        <v>10</v>
       </c>
       <c r="Y99" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z99" s="6">
         <v>0</v>
@@ -11117,7 +11129,7 @@
       <c r="N104" s="6">
         <v>0</v>
       </c>
-      <c r="O104" s="12">
+      <c r="O104" s="10">
         <v>8</v>
       </c>
       <c r="P104" s="6">
@@ -11126,7 +11138,7 @@
       <c r="Q104" s="6">
         <v>0</v>
       </c>
-      <c r="R104" s="12">
+      <c r="R104" s="10">
         <v>20</v>
       </c>
       <c r="S104" s="6">
@@ -11154,25 +11166,23 @@
         <v>0</v>
       </c>
       <c r="AA104" s="6">
+        <v>6</v>
+      </c>
+      <c r="AB104" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC104" s="15">
+        <v>7</v>
+      </c>
+      <c r="AD104" s="15">
         <v>8</v>
       </c>
-      <c r="AB104" s="13">
-        <v>3</v>
-      </c>
-      <c r="AC104" s="4"/>
-      <c r="AD104" s="4"/>
       <c r="AE104" s="4"/>
       <c r="AF104" s="4"/>
       <c r="AG104" s="4"/>
-      <c r="AH104" s="14">
-        <v>5</v>
-      </c>
-      <c r="AI104" s="14">
-        <v>6</v>
-      </c>
-      <c r="AJ104" s="14">
-        <v>7</v>
-      </c>
+      <c r="AH104" s="4"/>
+      <c r="AI104" s="4"/>
+      <c r="AJ104" s="4"/>
     </row>
     <row r="105" spans="1:36" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
@@ -11738,37 +11748,37 @@
         <v>39</v>
       </c>
       <c r="I111" s="6">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J111" s="6">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K111" s="6">
         <v>20</v>
       </c>
       <c r="L111" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M111" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N111" s="6">
         <v>0</v>
       </c>
       <c r="O111" s="6">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P111" s="6">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q111" s="6">
         <v>20</v>
       </c>
       <c r="R111" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S111" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T111" s="6">
         <v>0</v>
@@ -11828,37 +11838,37 @@
         <v>39</v>
       </c>
       <c r="I112" s="6">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="J112" s="6">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="K112" s="6">
         <v>76</v>
       </c>
       <c r="L112" s="6">
-        <v>36</v>
-      </c>
-      <c r="M112" s="7">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="M112" s="6">
+        <v>10</v>
       </c>
       <c r="N112" s="6">
         <v>36</v>
       </c>
       <c r="O112" s="6">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="P112" s="6">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="Q112" s="6">
         <v>20</v>
       </c>
       <c r="R112" s="6">
-        <v>0</v>
-      </c>
-      <c r="S112" s="7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="S112" s="6">
+        <v>10</v>
       </c>
       <c r="T112" s="6">
         <v>0</v>
@@ -11918,19 +11928,19 @@
         <v>39</v>
       </c>
       <c r="I113" s="6">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J113" s="6">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K113" s="6">
         <v>0</v>
       </c>
       <c r="L113" s="6">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M113" s="6">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N113" s="6">
         <v>0</v>
@@ -11954,19 +11964,19 @@
         <v>0</v>
       </c>
       <c r="U113" s="6">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="V113" s="6">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="W113" s="6">
         <v>0</v>
       </c>
       <c r="X113" s="6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Y113" s="6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Z113" s="6">
         <v>0</v>
@@ -11995,7 +12005,7 @@
       <c r="D114" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F114" s="4" t="s">
@@ -12007,16 +12017,16 @@
       <c r="H114" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I114" s="12">
-        <v>5</v>
+      <c r="I114" s="6">
+        <v>10</v>
       </c>
       <c r="J114" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K114" s="6">
         <v>0</v>
       </c>
-      <c r="L114" s="12">
+      <c r="L114" s="6">
         <v>7</v>
       </c>
       <c r="M114" s="6">
@@ -12043,16 +12053,16 @@
       <c r="T114" s="6">
         <v>0</v>
       </c>
-      <c r="U114" s="12">
-        <v>1</v>
+      <c r="U114" s="6">
+        <v>6</v>
       </c>
       <c r="V114" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W114" s="6">
         <v>0</v>
       </c>
-      <c r="X114" s="12">
+      <c r="X114" s="6">
         <v>5</v>
       </c>
       <c r="Y114" s="6">
@@ -12188,10 +12198,10 @@
         <v>39</v>
       </c>
       <c r="I116" s="6">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J116" s="6">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="K116" s="6">
         <v>0</v>
@@ -12224,10 +12234,10 @@
         <v>0</v>
       </c>
       <c r="U116" s="6">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="V116" s="6">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="W116" s="6">
         <v>0</v>
@@ -12278,55 +12288,55 @@
         <v>70</v>
       </c>
       <c r="I117" s="6">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J117" s="6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K117" s="6">
         <v>20</v>
       </c>
       <c r="L117" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M117" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N117" s="6">
         <v>0</v>
       </c>
       <c r="O117" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P117" s="6">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q117" s="6">
         <v>10</v>
       </c>
       <c r="R117" s="6">
-        <v>0</v>
-      </c>
-      <c r="S117" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S117" s="6">
+        <v>1</v>
       </c>
       <c r="T117" s="6">
         <v>0</v>
       </c>
       <c r="U117" s="6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V117" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W117" s="6">
         <v>10</v>
       </c>
       <c r="X117" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y117" s="6">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="Y117" s="7">
+        <v>0</v>
       </c>
       <c r="Z117" s="6">
         <v>0</v>
@@ -12385,14 +12395,14 @@
       <c r="N118" s="6">
         <v>0</v>
       </c>
-      <c r="O118" s="12">
+      <c r="O118" s="10">
         <v>0</v>
       </c>
       <c r="P118" s="9"/>
       <c r="Q118" s="6">
         <v>0</v>
       </c>
-      <c r="R118" s="12">
+      <c r="R118" s="10">
         <v>3</v>
       </c>
       <c r="S118" s="6">
@@ -12456,19 +12466,19 @@
         <v>70</v>
       </c>
       <c r="I119" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J119" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K119" s="6">
         <v>1</v>
       </c>
       <c r="L119" s="6">
-        <v>0</v>
-      </c>
-      <c r="M119" s="7">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M119" s="6">
+        <v>3</v>
       </c>
       <c r="N119" s="6">
         <v>0</v>
@@ -12490,19 +12500,19 @@
         <v>0</v>
       </c>
       <c r="U119" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V119" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W119" s="6">
         <v>0</v>
       </c>
       <c r="X119" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y119" s="7">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Y119" s="6">
+        <v>3</v>
       </c>
       <c r="Z119" s="6">
         <v>0</v>
@@ -12898,20 +12908,20 @@
         <v>39</v>
       </c>
       <c r="I124" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J124" s="9"/>
       <c r="K124" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L124" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M124" s="7">
         <v>0</v>
       </c>
       <c r="N124" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O124" s="6">
         <v>0</v>
@@ -12930,20 +12940,20 @@
         <v>0</v>
       </c>
       <c r="U124" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V124" s="9"/>
       <c r="W124" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X124" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y124" s="7">
         <v>0</v>
       </c>
       <c r="Z124" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA124" s="8"/>
       <c r="AB124" s="8"/>
@@ -13160,40 +13170,40 @@
         <v>39</v>
       </c>
       <c r="I127" s="6">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="J127" s="6">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K127" s="6">
         <v>89</v>
       </c>
       <c r="L127" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M127" s="7">
         <v>0</v>
       </c>
       <c r="N127" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O127" s="6">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="P127" s="6">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="Q127" s="6">
         <v>0</v>
       </c>
       <c r="R127" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S127" s="7">
         <v>0</v>
       </c>
       <c r="T127" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U127" s="6">
         <v>89</v>
@@ -13692,37 +13702,37 @@
         <v>39</v>
       </c>
       <c r="I133" s="6">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="J133" s="6">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="K133" s="6">
         <v>0</v>
       </c>
       <c r="L133" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M133" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N133" s="6">
         <v>0</v>
       </c>
       <c r="O133" s="6">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="P133" s="6">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="Q133" s="6">
         <v>0</v>
       </c>
       <c r="R133" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S133" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T133" s="6">
         <v>0</v>
@@ -14314,37 +14324,37 @@
         <v>39</v>
       </c>
       <c r="I140" s="6">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J140" s="6">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K140" s="6">
         <v>0</v>
       </c>
       <c r="L140" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M140" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N140" s="6">
         <v>0</v>
       </c>
       <c r="O140" s="6">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P140" s="6">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Q140" s="6">
         <v>0</v>
       </c>
       <c r="R140" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S140" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T140" s="6">
         <v>0</v>
@@ -14491,59 +14501,59 @@
       <c r="H142" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I142" s="10">
-        <v>1445</v>
-      </c>
-      <c r="J142" s="10">
-        <v>1328</v>
+      <c r="I142" s="11">
+        <v>1195</v>
+      </c>
+      <c r="J142" s="11">
+        <v>1118</v>
       </c>
       <c r="K142" s="6">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="L142" s="6">
-        <v>173</v>
+        <v>373</v>
       </c>
       <c r="M142" s="6">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="N142" s="6">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="O142" s="6">
-        <v>804</v>
+        <v>594</v>
       </c>
       <c r="P142" s="6">
-        <v>804</v>
+        <v>594</v>
       </c>
       <c r="Q142" s="6">
         <v>0</v>
       </c>
       <c r="R142" s="6">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="S142" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="T142" s="6">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="U142" s="6">
-        <v>641</v>
+        <v>601</v>
       </c>
       <c r="V142" s="6">
         <v>524</v>
       </c>
       <c r="W142" s="6">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="X142" s="6">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y142" s="6">
         <v>19</v>
       </c>
       <c r="Z142" s="6">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="AA142" s="8"/>
       <c r="AB142" s="8"/>
@@ -14582,22 +14592,22 @@
         <v>55</v>
       </c>
       <c r="I143" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J143" s="6">
         <v>9</v>
       </c>
       <c r="K143" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L143" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M143" s="7">
         <v>0</v>
       </c>
       <c r="N143" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O143" s="6">
         <v>9</v>
@@ -14617,21 +14627,21 @@
       <c r="T143" s="6">
         <v>0</v>
       </c>
-      <c r="U143" s="6">
-        <v>5</v>
+      <c r="U143" s="10">
+        <v>1</v>
       </c>
       <c r="V143" s="9"/>
       <c r="W143" s="6">
-        <v>5</v>
-      </c>
-      <c r="X143" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X143" s="10">
+        <v>4</v>
       </c>
       <c r="Y143" s="7">
         <v>0</v>
       </c>
       <c r="Z143" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA143" s="8"/>
       <c r="AB143" s="8"/>
@@ -14754,55 +14764,55 @@
         <v>39</v>
       </c>
       <c r="I145" s="6">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="J145" s="6">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="K145" s="6">
         <v>10</v>
       </c>
       <c r="L145" s="6">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="M145" s="6">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="N145" s="6">
         <v>0</v>
       </c>
       <c r="O145" s="6">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="P145" s="6">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="Q145" s="6">
         <v>10</v>
       </c>
       <c r="R145" s="6">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="S145" s="6">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="T145" s="6">
         <v>0</v>
       </c>
       <c r="U145" s="6">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="V145" s="6">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="W145" s="6">
         <v>0</v>
       </c>
       <c r="X145" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y145" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z145" s="6">
         <v>0</v>
@@ -14843,56 +14853,56 @@
       <c r="H146" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I146" s="10">
-        <v>3855</v>
-      </c>
-      <c r="J146" s="10">
-        <v>3855</v>
+      <c r="I146" s="11">
+        <v>3449</v>
+      </c>
+      <c r="J146" s="11">
+        <v>3449</v>
       </c>
       <c r="K146" s="6">
         <v>0</v>
       </c>
-      <c r="L146" s="10">
-        <v>1093</v>
-      </c>
-      <c r="M146" s="10">
-        <v>1093</v>
+      <c r="L146" s="11">
+        <v>1490</v>
+      </c>
+      <c r="M146" s="11">
+        <v>1490</v>
       </c>
       <c r="N146" s="6">
         <v>0</v>
       </c>
-      <c r="O146" s="10">
-        <v>1795</v>
-      </c>
-      <c r="P146" s="10">
-        <v>1795</v>
+      <c r="O146" s="11">
+        <v>1484</v>
+      </c>
+      <c r="P146" s="11">
+        <v>1484</v>
       </c>
       <c r="Q146" s="6">
         <v>0</v>
       </c>
       <c r="R146" s="6">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="S146" s="6">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="T146" s="6">
         <v>0</v>
       </c>
-      <c r="U146" s="10">
-        <v>2060</v>
-      </c>
-      <c r="V146" s="10">
-        <v>2060</v>
+      <c r="U146" s="11">
+        <v>1965</v>
+      </c>
+      <c r="V146" s="11">
+        <v>1965</v>
       </c>
       <c r="W146" s="6">
         <v>0</v>
       </c>
-      <c r="X146" s="6">
-        <v>916</v>
-      </c>
-      <c r="Y146" s="6">
-        <v>916</v>
+      <c r="X146" s="11">
+        <v>1231</v>
+      </c>
+      <c r="Y146" s="11">
+        <v>1231</v>
       </c>
       <c r="Z146" s="6">
         <v>0</v>
@@ -14933,59 +14943,59 @@
       <c r="H147" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I147" s="10">
-        <v>2789</v>
-      </c>
-      <c r="J147" s="10">
-        <v>2518</v>
+      <c r="I147" s="11">
+        <v>2568</v>
+      </c>
+      <c r="J147" s="11">
+        <v>2332</v>
       </c>
       <c r="K147" s="6">
-        <v>271</v>
-      </c>
-      <c r="L147" s="6">
-        <v>903</v>
+        <v>236</v>
+      </c>
+      <c r="L147" s="11">
+        <v>1124</v>
       </c>
       <c r="M147" s="6">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="N147" s="6">
-        <v>593</v>
-      </c>
-      <c r="O147" s="10">
-        <v>2013</v>
-      </c>
-      <c r="P147" s="10">
-        <v>2012</v>
+        <v>728</v>
+      </c>
+      <c r="O147" s="11">
+        <v>1827</v>
+      </c>
+      <c r="P147" s="11">
+        <v>1826</v>
       </c>
       <c r="Q147" s="6">
         <v>1</v>
       </c>
       <c r="R147" s="6">
-        <v>785</v>
+        <v>971</v>
       </c>
       <c r="S147" s="6">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="T147" s="6">
-        <v>515</v>
+        <v>615</v>
       </c>
       <c r="U147" s="6">
-        <v>776</v>
+        <v>741</v>
       </c>
       <c r="V147" s="6">
         <v>506</v>
       </c>
       <c r="W147" s="6">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="X147" s="6">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="Y147" s="6">
         <v>40</v>
       </c>
       <c r="Z147" s="6">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AA147" s="8"/>
       <c r="AB147" s="8"/>
@@ -15112,37 +15122,37 @@
         <v>39</v>
       </c>
       <c r="I149" s="6">
-        <v>885</v>
+        <v>835</v>
       </c>
       <c r="J149" s="6">
-        <v>885</v>
+        <v>835</v>
       </c>
       <c r="K149" s="6">
         <v>0</v>
       </c>
       <c r="L149" s="6">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="M149" s="6">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="N149" s="6">
         <v>0</v>
       </c>
       <c r="O149" s="6">
-        <v>885</v>
+        <v>835</v>
       </c>
       <c r="P149" s="6">
-        <v>885</v>
+        <v>835</v>
       </c>
       <c r="Q149" s="6">
         <v>0</v>
       </c>
       <c r="R149" s="6">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="S149" s="6">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="T149" s="6">
         <v>0</v>
@@ -15199,10 +15209,10 @@
       <c r="H150" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I150" s="10">
+      <c r="I150" s="11">
         <v>1112</v>
       </c>
-      <c r="J150" s="10">
+      <c r="J150" s="11">
         <v>1112</v>
       </c>
       <c r="K150" s="6">
@@ -15217,10 +15227,10 @@
       <c r="N150" s="6">
         <v>0</v>
       </c>
-      <c r="O150" s="10">
+      <c r="O150" s="11">
         <v>1065</v>
       </c>
-      <c r="P150" s="10">
+      <c r="P150" s="11">
         <v>1065</v>
       </c>
       <c r="Q150" s="6">
@@ -15290,55 +15300,55 @@
         <v>243</v>
       </c>
       <c r="I151" s="6">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="J151" s="6">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="K151" s="6">
         <v>0</v>
       </c>
       <c r="L151" s="6">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="M151" s="6">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="N151" s="6">
         <v>0</v>
       </c>
       <c r="O151" s="6">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P151" s="6">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q151" s="6">
         <v>0</v>
       </c>
       <c r="R151" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S151" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T151" s="6">
         <v>0</v>
       </c>
       <c r="U151" s="6">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="V151" s="6">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="W151" s="6">
         <v>0</v>
       </c>
       <c r="X151" s="6">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="Y151" s="6">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="Z151" s="6">
         <v>0</v>
@@ -15367,7 +15377,7 @@
       <c r="D152" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="E152" s="12" t="s">
         <v>245</v>
       </c>
       <c r="F152" s="4" t="s">
@@ -15379,20 +15389,18 @@
       <c r="H152" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I152" s="6">
-        <v>43</v>
-      </c>
-      <c r="J152" s="6">
-        <v>30</v>
-      </c>
+      <c r="I152" s="10">
+        <v>13</v>
+      </c>
+      <c r="J152" s="9"/>
       <c r="K152" s="6">
         <v>13</v>
       </c>
-      <c r="L152" s="6">
-        <v>6</v>
-      </c>
-      <c r="M152" s="7">
-        <v>0</v>
+      <c r="L152" s="10">
+        <v>36</v>
+      </c>
+      <c r="M152" s="6">
+        <v>30</v>
       </c>
       <c r="N152" s="6">
         <v>6</v>
@@ -15413,20 +15421,18 @@
       <c r="T152" s="6">
         <v>0</v>
       </c>
-      <c r="U152" s="6">
-        <v>43</v>
-      </c>
-      <c r="V152" s="6">
-        <v>30</v>
-      </c>
+      <c r="U152" s="10">
+        <v>13</v>
+      </c>
+      <c r="V152" s="9"/>
       <c r="W152" s="6">
         <v>13</v>
       </c>
-      <c r="X152" s="6">
-        <v>6</v>
-      </c>
-      <c r="Y152" s="7">
-        <v>0</v>
+      <c r="X152" s="10">
+        <v>36</v>
+      </c>
+      <c r="Y152" s="6">
+        <v>30</v>
       </c>
       <c r="Z152" s="6">
         <v>6</v>
@@ -15646,55 +15652,55 @@
         <v>39</v>
       </c>
       <c r="I155" s="6">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="J155" s="6">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="K155" s="6">
         <v>0</v>
       </c>
       <c r="L155" s="6">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="M155" s="6">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="N155" s="6">
         <v>0</v>
       </c>
       <c r="O155" s="6">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="P155" s="6">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="Q155" s="6">
         <v>0</v>
       </c>
       <c r="R155" s="6">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="S155" s="6">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="T155" s="6">
         <v>0</v>
       </c>
       <c r="U155" s="6">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="V155" s="6">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="W155" s="6">
         <v>0</v>
       </c>
       <c r="X155" s="6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y155" s="6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z155" s="6">
         <v>0</v>
@@ -15736,10 +15742,10 @@
         <v>39</v>
       </c>
       <c r="I156" s="6">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="J156" s="6">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="K156" s="6">
         <v>0</v>
@@ -15754,10 +15760,10 @@
         <v>0</v>
       </c>
       <c r="O156" s="6">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="P156" s="6">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="Q156" s="6">
         <v>0</v>
@@ -15824,37 +15830,37 @@
         <v>70</v>
       </c>
       <c r="I157" s="6">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J157" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K157" s="6">
         <v>20</v>
       </c>
       <c r="L157" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M157" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N157" s="6">
         <v>0</v>
       </c>
       <c r="O157" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P157" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q157" s="6">
         <v>20</v>
       </c>
       <c r="R157" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S157" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T157" s="6">
         <v>0</v>
@@ -15869,10 +15875,10 @@
         <v>0</v>
       </c>
       <c r="X157" s="6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Y157" s="6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Z157" s="6">
         <v>0</v>
@@ -15914,37 +15920,37 @@
         <v>70</v>
       </c>
       <c r="I158" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J158" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K158" s="6">
         <v>0</v>
       </c>
       <c r="L158" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M158" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N158" s="6">
         <v>0</v>
       </c>
-      <c r="O158" s="12">
-        <v>2</v>
+      <c r="O158" s="10">
+        <v>1</v>
       </c>
       <c r="P158" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q158" s="6">
         <v>0</v>
       </c>
-      <c r="R158" s="12">
-        <v>8</v>
+      <c r="R158" s="10">
+        <v>9</v>
       </c>
       <c r="S158" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T158" s="6">
         <v>0</v>
@@ -16004,55 +16010,55 @@
         <v>39</v>
       </c>
       <c r="I159" s="6">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="J159" s="6">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="K159" s="6">
         <v>10</v>
       </c>
       <c r="L159" s="6">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M159" s="6">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N159" s="6">
         <v>0</v>
       </c>
       <c r="O159" s="6">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="P159" s="6">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="Q159" s="6">
         <v>10</v>
       </c>
       <c r="R159" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S159" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T159" s="6">
         <v>0</v>
       </c>
       <c r="U159" s="6">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V159" s="6">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W159" s="6">
         <v>0</v>
       </c>
       <c r="X159" s="6">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y159" s="6">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Z159" s="6">
         <v>0</v>
@@ -16093,7 +16099,7 @@
       <c r="H160" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I160" s="10">
+      <c r="I160" s="11">
         <v>1040</v>
       </c>
       <c r="J160" s="6">
@@ -16171,7 +16177,7 @@
       <c r="D161" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E161" s="11" t="s">
+      <c r="E161" s="4" t="s">
         <v>256</v>
       </c>
       <c r="F161" s="4" t="s">
@@ -16183,56 +16189,56 @@
       <c r="H161" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I161" s="12">
-        <v>32</v>
+      <c r="I161" s="6">
+        <v>626</v>
       </c>
       <c r="J161" s="6">
-        <v>32</v>
+        <v>626</v>
       </c>
       <c r="K161" s="6">
         <v>0</v>
       </c>
-      <c r="L161" s="12">
-        <v>64</v>
+      <c r="L161" s="6">
+        <v>103</v>
       </c>
       <c r="M161" s="6">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="N161" s="6">
         <v>0</v>
       </c>
       <c r="O161" s="6">
-        <v>29</v>
+        <v>465</v>
       </c>
       <c r="P161" s="6">
-        <v>29</v>
+        <v>465</v>
       </c>
       <c r="Q161" s="6">
         <v>0</v>
       </c>
       <c r="R161" s="6">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="S161" s="6">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="T161" s="6">
         <v>0</v>
       </c>
-      <c r="U161" s="12">
-        <v>3</v>
+      <c r="U161" s="6">
+        <v>161</v>
       </c>
       <c r="V161" s="6">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="W161" s="6">
         <v>0</v>
       </c>
-      <c r="X161" s="12">
-        <v>55</v>
+      <c r="X161" s="6">
+        <v>67</v>
       </c>
       <c r="Y161" s="6">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Z161" s="6">
         <v>0</v>
@@ -16362,20 +16368,20 @@
         <v>39</v>
       </c>
       <c r="I163" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J163" s="9"/>
       <c r="K163" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L163" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M163" s="7">
         <v>0</v>
       </c>
       <c r="N163" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O163" s="6">
         <v>0</v>
@@ -16394,20 +16400,20 @@
         <v>0</v>
       </c>
       <c r="U163" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V163" s="9"/>
       <c r="W163" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X163" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y163" s="7">
         <v>0</v>
       </c>
       <c r="Z163" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA163" s="8"/>
       <c r="AB163" s="8"/>
@@ -16445,28 +16451,28 @@
       <c r="H164" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I164" s="10">
-        <v>1525</v>
-      </c>
-      <c r="J164" s="10">
+      <c r="I164" s="11">
+        <v>1521</v>
+      </c>
+      <c r="J164" s="11">
         <v>1471</v>
       </c>
       <c r="K164" s="6">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L164" s="6">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M164" s="6">
         <v>5</v>
       </c>
       <c r="N164" s="6">
-        <v>24</v>
-      </c>
-      <c r="O164" s="10">
+        <v>28</v>
+      </c>
+      <c r="O164" s="11">
         <v>1308</v>
       </c>
-      <c r="P164" s="10">
+      <c r="P164" s="11">
         <v>1308</v>
       </c>
       <c r="Q164" s="6">
@@ -16482,22 +16488,22 @@
         <v>15</v>
       </c>
       <c r="U164" s="6">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="V164" s="6">
         <v>163</v>
       </c>
       <c r="W164" s="6">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X164" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y164" s="7">
         <v>0</v>
       </c>
       <c r="Z164" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA164" s="8"/>
       <c r="AB164" s="8"/>
@@ -16624,37 +16630,37 @@
         <v>70</v>
       </c>
       <c r="I166" s="6">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J166" s="6">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K166" s="6">
         <v>10</v>
       </c>
       <c r="L166" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M166" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N166" s="6">
         <v>0</v>
       </c>
       <c r="O166" s="6">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P166" s="6">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q166" s="6">
         <v>10</v>
       </c>
       <c r="R166" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S166" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T166" s="6">
         <v>0</v>
@@ -16714,40 +16720,40 @@
         <v>55</v>
       </c>
       <c r="I167" s="6">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="J167" s="6">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K167" s="6">
         <v>70</v>
       </c>
       <c r="L167" s="6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M167" s="7">
         <v>0</v>
       </c>
       <c r="N167" s="6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O167" s="6">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="P167" s="6">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="Q167" s="6">
         <v>1</v>
       </c>
       <c r="R167" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S167" s="7">
         <v>0</v>
       </c>
       <c r="T167" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U167" s="6">
         <v>147</v>
@@ -16804,37 +16810,37 @@
         <v>70</v>
       </c>
       <c r="I168" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J168" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K168" s="6">
         <v>1</v>
       </c>
       <c r="L168" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M168" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N168" s="6">
         <v>0</v>
       </c>
       <c r="O168" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P168" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q168" s="6">
         <v>1</v>
       </c>
       <c r="R168" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S168" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T168" s="6">
         <v>0</v>
@@ -16982,66 +16988,76 @@
         <v>39</v>
       </c>
       <c r="I170" s="6">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="J170" s="6">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="K170" s="6">
         <v>0</v>
       </c>
       <c r="L170" s="6">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="M170" s="6">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="N170" s="6">
         <v>0</v>
       </c>
       <c r="O170" s="6">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="P170" s="6">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="Q170" s="6">
         <v>0</v>
       </c>
       <c r="R170" s="6">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="S170" s="6">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="T170" s="6">
         <v>0</v>
       </c>
       <c r="U170" s="6">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="V170" s="6">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="W170" s="6">
         <v>0</v>
       </c>
       <c r="X170" s="6">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="Y170" s="6">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="Z170" s="6">
         <v>0</v>
       </c>
-      <c r="AA170" s="8"/>
-      <c r="AB170" s="8"/>
+      <c r="AA170" s="6">
+        <v>8</v>
+      </c>
+      <c r="AB170" s="13">
+        <v>3</v>
+      </c>
       <c r="AC170" s="4"/>
       <c r="AD170" s="4"/>
-      <c r="AE170" s="4"/>
-      <c r="AF170" s="4"/>
-      <c r="AG170" s="4"/>
+      <c r="AE170" s="15">
+        <v>9</v>
+      </c>
+      <c r="AF170" s="14">
+        <v>10</v>
+      </c>
+      <c r="AG170" s="14">
+        <v>11</v>
+      </c>
       <c r="AH170" s="4"/>
       <c r="AI170" s="4"/>
       <c r="AJ170" s="4"/>
@@ -17059,7 +17075,7 @@
       <c r="D171" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E171" s="4" t="s">
+      <c r="E171" s="12" t="s">
         <v>268</v>
       </c>
       <c r="F171" s="4" t="s">
@@ -17071,21 +17087,21 @@
       <c r="H171" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I171" s="6">
-        <v>41</v>
+      <c r="I171" s="10">
+        <v>21</v>
       </c>
       <c r="J171" s="9"/>
       <c r="K171" s="6">
-        <v>41</v>
-      </c>
-      <c r="L171" s="6">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="L171" s="10">
+        <v>24</v>
       </c>
       <c r="M171" s="7">
         <v>0</v>
       </c>
       <c r="N171" s="6">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="O171" s="6">
         <v>0</v>
@@ -17103,21 +17119,21 @@
       <c r="T171" s="6">
         <v>0</v>
       </c>
-      <c r="U171" s="6">
-        <v>41</v>
+      <c r="U171" s="10">
+        <v>21</v>
       </c>
       <c r="V171" s="9"/>
       <c r="W171" s="6">
-        <v>41</v>
-      </c>
-      <c r="X171" s="6">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="X171" s="10">
+        <v>24</v>
       </c>
       <c r="Y171" s="7">
         <v>0</v>
       </c>
       <c r="Z171" s="6">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AA171" s="8"/>
       <c r="AB171" s="8"/>
@@ -17155,11 +17171,11 @@
       <c r="H172" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I172" s="10">
-        <v>1021</v>
+      <c r="I172" s="11">
+        <v>1001</v>
       </c>
       <c r="J172" s="6">
-        <v>982</v>
+        <v>962</v>
       </c>
       <c r="K172" s="6">
         <v>39</v>
@@ -17174,10 +17190,10 @@
         <v>20</v>
       </c>
       <c r="O172" s="6">
-        <v>982</v>
+        <v>962</v>
       </c>
       <c r="P172" s="6">
-        <v>982</v>
+        <v>962</v>
       </c>
       <c r="Q172" s="6">
         <v>0</v>
@@ -17244,10 +17260,10 @@
         <v>39</v>
       </c>
       <c r="I173" s="6">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="J173" s="6">
-        <v>55</v>
+        <v>448</v>
       </c>
       <c r="K173" s="6">
         <v>25</v>
@@ -17262,9 +17278,11 @@
         <v>0</v>
       </c>
       <c r="O173" s="6">
-        <v>0</v>
-      </c>
-      <c r="P173" s="8"/>
+        <v>393</v>
+      </c>
+      <c r="P173" s="6">
+        <v>393</v>
+      </c>
       <c r="Q173" s="6">
         <v>0</v>
       </c>
@@ -17512,19 +17530,19 @@
         <v>39</v>
       </c>
       <c r="I176" s="6">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J176" s="6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K176" s="6">
         <v>69</v>
       </c>
       <c r="L176" s="6">
-        <v>5</v>
-      </c>
-      <c r="M176" s="7">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="M176" s="6">
+        <v>10</v>
       </c>
       <c r="N176" s="6">
         <v>5</v>
@@ -17546,41 +17564,43 @@
         <v>0</v>
       </c>
       <c r="U176" s="6">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="V176" s="6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="W176" s="6">
         <v>69</v>
       </c>
       <c r="X176" s="6">
-        <v>5</v>
-      </c>
-      <c r="Y176" s="7">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="Y176" s="6">
+        <v>10</v>
       </c>
       <c r="Z176" s="6">
         <v>5</v>
       </c>
       <c r="AA176" s="6">
+        <v>11</v>
+      </c>
+      <c r="AB176" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC176" s="4"/>
+      <c r="AD176" s="15">
         <v>8</v>
       </c>
-      <c r="AB176" s="13">
-        <v>3</v>
-      </c>
-      <c r="AC176" s="4"/>
-      <c r="AD176" s="4"/>
-      <c r="AE176" s="4"/>
+      <c r="AE176" s="15">
+        <v>9</v>
+      </c>
       <c r="AF176" s="14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AG176" s="14">
-        <v>4</v>
-      </c>
-      <c r="AH176" s="14">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="AH176" s="4"/>
       <c r="AI176" s="4"/>
       <c r="AJ176" s="4"/>
     </row>
@@ -17700,19 +17720,19 @@
         <v>39</v>
       </c>
       <c r="I178" s="6">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J178" s="6">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K178" s="6">
         <v>0</v>
       </c>
       <c r="L178" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M178" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N178" s="6">
         <v>0</v>
@@ -17736,19 +17756,19 @@
         <v>0</v>
       </c>
       <c r="U178" s="6">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V178" s="6">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W178" s="6">
         <v>0</v>
       </c>
       <c r="X178" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y178" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z178" s="6">
         <v>0</v>
@@ -17790,27 +17810,29 @@
         <v>39</v>
       </c>
       <c r="I179" s="6">
-        <v>105</v>
+        <v>602</v>
       </c>
       <c r="J179" s="6">
-        <v>45</v>
+        <v>542</v>
       </c>
       <c r="K179" s="6">
         <v>60</v>
       </c>
       <c r="L179" s="6">
-        <v>5</v>
-      </c>
-      <c r="M179" s="7">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="M179" s="6">
+        <v>20</v>
       </c>
       <c r="N179" s="6">
         <v>5</v>
       </c>
       <c r="O179" s="6">
-        <v>0</v>
-      </c>
-      <c r="P179" s="8"/>
+        <v>517</v>
+      </c>
+      <c r="P179" s="6">
+        <v>517</v>
+      </c>
       <c r="Q179" s="6">
         <v>0</v>
       </c>
@@ -17824,19 +17846,19 @@
         <v>0</v>
       </c>
       <c r="U179" s="6">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="V179" s="6">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="W179" s="6">
         <v>60</v>
       </c>
       <c r="X179" s="6">
-        <v>5</v>
-      </c>
-      <c r="Y179" s="7">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="Y179" s="6">
+        <v>20</v>
       </c>
       <c r="Z179" s="6">
         <v>5</v>
@@ -17865,7 +17887,7 @@
       <c r="D180" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E180" s="11" t="s">
+      <c r="E180" s="12" t="s">
         <v>279</v>
       </c>
       <c r="F180" s="4" t="s">
@@ -17877,7 +17899,7 @@
       <c r="H180" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I180" s="12">
+      <c r="I180" s="10">
         <v>9</v>
       </c>
       <c r="J180" s="6">
@@ -17886,7 +17908,7 @@
       <c r="K180" s="6">
         <v>0</v>
       </c>
-      <c r="L180" s="12">
+      <c r="L180" s="10">
         <v>9</v>
       </c>
       <c r="M180" s="6">
@@ -17895,7 +17917,7 @@
       <c r="N180" s="6">
         <v>0</v>
       </c>
-      <c r="O180" s="12">
+      <c r="O180" s="10">
         <v>9</v>
       </c>
       <c r="P180" s="6">
@@ -17904,7 +17926,7 @@
       <c r="Q180" s="6">
         <v>0</v>
       </c>
-      <c r="R180" s="12">
+      <c r="R180" s="10">
         <v>9</v>
       </c>
       <c r="S180" s="6">
@@ -17966,31 +17988,33 @@
         <v>39</v>
       </c>
       <c r="I181" s="6">
-        <v>128</v>
+        <v>544</v>
       </c>
       <c r="J181" s="6">
-        <v>113</v>
+        <v>529</v>
       </c>
       <c r="K181" s="6">
         <v>15</v>
       </c>
       <c r="L181" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M181" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N181" s="6">
         <v>0</v>
       </c>
-      <c r="O181" s="12">
-        <v>15</v>
-      </c>
-      <c r="P181" s="9"/>
+      <c r="O181" s="6">
+        <v>432</v>
+      </c>
+      <c r="P181" s="6">
+        <v>417</v>
+      </c>
       <c r="Q181" s="6">
         <v>15</v>
       </c>
-      <c r="R181" s="12">
+      <c r="R181" s="6">
         <v>19</v>
       </c>
       <c r="S181" s="6">
@@ -18000,19 +18024,19 @@
         <v>0</v>
       </c>
       <c r="U181" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V181" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W181" s="6">
         <v>0</v>
       </c>
       <c r="X181" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y181" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z181" s="6">
         <v>0</v>
@@ -18053,59 +18077,59 @@
       <c r="H182" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I182" s="10">
-        <v>1952</v>
-      </c>
-      <c r="J182" s="10">
-        <v>1849</v>
+      <c r="I182" s="11">
+        <v>1897</v>
+      </c>
+      <c r="J182" s="11">
+        <v>1813</v>
       </c>
       <c r="K182" s="6">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="L182" s="6">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="M182" s="6">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N182" s="6">
-        <v>156</v>
-      </c>
-      <c r="O182" s="10">
-        <v>1675</v>
-      </c>
-      <c r="P182" s="10">
-        <v>1675</v>
+        <v>175</v>
+      </c>
+      <c r="O182" s="11">
+        <v>1639</v>
+      </c>
+      <c r="P182" s="11">
+        <v>1639</v>
       </c>
       <c r="Q182" s="6">
         <v>0</v>
       </c>
       <c r="R182" s="6">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="S182" s="6">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="T182" s="6">
         <v>148</v>
       </c>
       <c r="U182" s="6">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="V182" s="6">
         <v>174</v>
       </c>
       <c r="W182" s="6">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="X182" s="6">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="Y182" s="6">
         <v>15</v>
       </c>
       <c r="Z182" s="6">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AA182" s="8"/>
       <c r="AB182" s="8"/>
@@ -18144,55 +18168,55 @@
         <v>39</v>
       </c>
       <c r="I183" s="6">
-        <v>899</v>
+        <v>778</v>
       </c>
       <c r="J183" s="6">
-        <v>899</v>
+        <v>778</v>
       </c>
       <c r="K183" s="6">
         <v>0</v>
       </c>
       <c r="L183" s="6">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="M183" s="6">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="N183" s="6">
         <v>0</v>
       </c>
       <c r="O183" s="6">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="P183" s="6">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="Q183" s="6">
         <v>0</v>
       </c>
       <c r="R183" s="6">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="S183" s="6">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="T183" s="6">
         <v>0</v>
       </c>
       <c r="U183" s="6">
-        <v>550</v>
+        <v>489</v>
       </c>
       <c r="V183" s="6">
-        <v>550</v>
+        <v>489</v>
       </c>
       <c r="W183" s="6">
         <v>0</v>
       </c>
       <c r="X183" s="6">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="Y183" s="6">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="Z183" s="6">
         <v>0</v>
@@ -18500,13 +18524,13 @@
         <v>39</v>
       </c>
       <c r="I187" s="6">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="J187" s="6">
         <v>159</v>
       </c>
       <c r="K187" s="6">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L187" s="6">
         <v>15</v>
@@ -18536,13 +18560,13 @@
         <v>0</v>
       </c>
       <c r="U187" s="6">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="V187" s="6">
         <v>20</v>
       </c>
       <c r="W187" s="6">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="X187" s="6">
         <v>15</v>
@@ -18678,19 +18702,19 @@
         <v>39</v>
       </c>
       <c r="I189" s="6">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J189" s="6">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K189" s="6">
         <v>0</v>
       </c>
       <c r="L189" s="6">
-        <v>0</v>
-      </c>
-      <c r="M189" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M189" s="6">
+        <v>1</v>
       </c>
       <c r="N189" s="6">
         <v>0</v>
@@ -18714,19 +18738,19 @@
         <v>0</v>
       </c>
       <c r="U189" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V189" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W189" s="6">
         <v>0</v>
       </c>
       <c r="X189" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y189" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y189" s="6">
+        <v>1</v>
       </c>
       <c r="Z189" s="6">
         <v>0</v>
@@ -18948,19 +18972,19 @@
         <v>70</v>
       </c>
       <c r="I192" s="6">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J192" s="6">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K192" s="6">
         <v>0</v>
       </c>
       <c r="L192" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M192" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N192" s="6">
         <v>0</v>
@@ -18984,19 +19008,19 @@
         <v>0</v>
       </c>
       <c r="U192" s="6">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V192" s="6">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="W192" s="6">
         <v>0</v>
       </c>
       <c r="X192" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y192" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z192" s="6">
         <v>0</v>
@@ -19038,19 +19062,19 @@
         <v>39</v>
       </c>
       <c r="I193" s="6">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="J193" s="6">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K193" s="6">
         <v>89</v>
       </c>
       <c r="L193" s="6">
-        <v>1</v>
-      </c>
-      <c r="M193" s="7">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="M193" s="6">
+        <v>5</v>
       </c>
       <c r="N193" s="6">
         <v>1</v>
@@ -19074,19 +19098,19 @@
         <v>0</v>
       </c>
       <c r="U193" s="6">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="V193" s="6">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="W193" s="6">
         <v>89</v>
       </c>
       <c r="X193" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y193" s="7">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="Y193" s="6">
+        <v>5</v>
       </c>
       <c r="Z193" s="6">
         <v>1</v>
@@ -19128,44 +19152,46 @@
         <v>39</v>
       </c>
       <c r="I194" s="6">
-        <v>30</v>
+        <v>396</v>
       </c>
       <c r="J194" s="6">
-        <v>30</v>
+        <v>396</v>
       </c>
       <c r="K194" s="6">
         <v>0</v>
       </c>
       <c r="L194" s="6">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M194" s="6">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="N194" s="6">
         <v>0</v>
       </c>
-      <c r="O194" s="12">
-        <v>0</v>
-      </c>
-      <c r="P194" s="9"/>
+      <c r="O194" s="6">
+        <v>356</v>
+      </c>
+      <c r="P194" s="6">
+        <v>356</v>
+      </c>
       <c r="Q194" s="6">
         <v>0</v>
       </c>
-      <c r="R194" s="12">
-        <v>2</v>
+      <c r="R194" s="6">
+        <v>32</v>
       </c>
       <c r="S194" s="6">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="T194" s="6">
         <v>0</v>
       </c>
       <c r="U194" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V194" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W194" s="6">
         <v>0</v>
@@ -19215,11 +19241,11 @@
       <c r="H195" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I195" s="10">
-        <v>1589</v>
-      </c>
-      <c r="J195" s="10">
-        <v>1589</v>
+      <c r="I195" s="11">
+        <v>1588</v>
+      </c>
+      <c r="J195" s="11">
+        <v>1588</v>
       </c>
       <c r="K195" s="6">
         <v>0</v>
@@ -19233,10 +19259,10 @@
       <c r="N195" s="6">
         <v>0</v>
       </c>
-      <c r="O195" s="10">
+      <c r="O195" s="11">
         <v>1569</v>
       </c>
-      <c r="P195" s="10">
+      <c r="P195" s="11">
         <v>1569</v>
       </c>
       <c r="Q195" s="6">
@@ -19252,10 +19278,10 @@
         <v>0</v>
       </c>
       <c r="U195" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V195" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W195" s="6">
         <v>0</v>
@@ -19306,58 +19332,58 @@
         <v>39</v>
       </c>
       <c r="I196" s="6">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="J196" s="6">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="K196" s="6">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L196" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M196" s="7">
         <v>0</v>
       </c>
       <c r="N196" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O196" s="6">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="P196" s="6">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="Q196" s="6">
         <v>0</v>
       </c>
       <c r="R196" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S196" s="7">
         <v>0</v>
       </c>
       <c r="T196" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U196" s="6">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="V196" s="6">
         <v>88</v>
       </c>
       <c r="W196" s="6">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X196" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y196" s="7">
         <v>0</v>
       </c>
       <c r="Z196" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA196" s="8"/>
       <c r="AB196" s="8"/>
@@ -19752,37 +19778,37 @@
         <v>70</v>
       </c>
       <c r="I201" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J201" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K201" s="6">
         <v>0</v>
       </c>
       <c r="L201" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M201" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N201" s="6">
         <v>0</v>
       </c>
       <c r="O201" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P201" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q201" s="6">
         <v>0</v>
       </c>
       <c r="R201" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S201" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T201" s="6">
         <v>0</v>
@@ -19840,19 +19866,19 @@
         <v>39</v>
       </c>
       <c r="I202" s="6">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J202" s="6">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K202" s="6">
         <v>0</v>
       </c>
       <c r="L202" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M202" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N202" s="6">
         <v>0</v>
@@ -19876,19 +19902,19 @@
         <v>0</v>
       </c>
       <c r="U202" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V202" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W202" s="6">
         <v>0</v>
       </c>
       <c r="X202" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y202" s="7">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Y202" s="6">
+        <v>3</v>
       </c>
       <c r="Z202" s="6">
         <v>0</v>
@@ -19930,28 +19956,28 @@
         <v>39</v>
       </c>
       <c r="I203" s="6">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="J203" s="6">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="K203" s="6">
         <v>0</v>
       </c>
       <c r="L203" s="6">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M203" s="6">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N203" s="6">
         <v>0</v>
       </c>
       <c r="O203" s="6">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="P203" s="6">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="Q203" s="6">
         <v>0</v>
@@ -19966,19 +19992,19 @@
         <v>0</v>
       </c>
       <c r="U203" s="6">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="V203" s="6">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="W203" s="6">
         <v>0</v>
       </c>
       <c r="X203" s="6">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="Y203" s="6">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="Z203" s="6">
         <v>0</v>
@@ -20020,28 +20046,28 @@
         <v>39</v>
       </c>
       <c r="I204" s="6">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="J204" s="6">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="K204" s="6">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="L204" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M204" s="7">
         <v>0</v>
       </c>
       <c r="N204" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O204" s="6">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="P204" s="6">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="Q204" s="6">
         <v>0</v>
@@ -20056,22 +20082,22 @@
         <v>0</v>
       </c>
       <c r="U204" s="6">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="V204" s="6">
         <v>51</v>
       </c>
       <c r="W204" s="6">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="X204" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Y204" s="7">
         <v>0</v>
       </c>
       <c r="Z204" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AA204" s="8"/>
       <c r="AB204" s="8"/>
@@ -20110,19 +20136,19 @@
         <v>70</v>
       </c>
       <c r="I205" s="6">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J205" s="6">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K205" s="6">
         <v>15</v>
       </c>
       <c r="L205" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M205" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N205" s="6">
         <v>0</v>
@@ -20146,19 +20172,19 @@
         <v>0</v>
       </c>
       <c r="U205" s="6">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V205" s="6">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W205" s="6">
         <v>0</v>
       </c>
       <c r="X205" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y205" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z205" s="6">
         <v>0</v>
@@ -20468,37 +20494,37 @@
         <v>39</v>
       </c>
       <c r="I209" s="6">
-        <v>669</v>
+        <v>639</v>
       </c>
       <c r="J209" s="6">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="K209" s="6">
         <v>99</v>
       </c>
       <c r="L209" s="6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M209" s="6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N209" s="6">
         <v>0</v>
       </c>
       <c r="O209" s="6">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="P209" s="6">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="Q209" s="6">
         <v>0</v>
       </c>
       <c r="R209" s="6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="S209" s="6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="T209" s="6">
         <v>0</v>
@@ -20558,55 +20584,55 @@
         <v>39</v>
       </c>
       <c r="I210" s="6">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J210" s="6">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K210" s="6">
         <v>0</v>
       </c>
       <c r="L210" s="6">
+        <v>5</v>
+      </c>
+      <c r="M210" s="6">
+        <v>5</v>
+      </c>
+      <c r="N210" s="6">
+        <v>0</v>
+      </c>
+      <c r="O210" s="6">
+        <v>84</v>
+      </c>
+      <c r="P210" s="6">
+        <v>84</v>
+      </c>
+      <c r="Q210" s="6">
+        <v>0</v>
+      </c>
+      <c r="R210" s="6">
+        <v>2</v>
+      </c>
+      <c r="S210" s="6">
+        <v>2</v>
+      </c>
+      <c r="T210" s="6">
+        <v>0</v>
+      </c>
+      <c r="U210" s="6">
+        <v>21</v>
+      </c>
+      <c r="V210" s="6">
+        <v>21</v>
+      </c>
+      <c r="W210" s="6">
+        <v>0</v>
+      </c>
+      <c r="X210" s="6">
         <v>3</v>
       </c>
-      <c r="M210" s="6">
+      <c r="Y210" s="6">
         <v>3</v>
-      </c>
-      <c r="N210" s="6">
-        <v>0</v>
-      </c>
-      <c r="O210" s="6">
-        <v>85</v>
-      </c>
-      <c r="P210" s="6">
-        <v>85</v>
-      </c>
-      <c r="Q210" s="6">
-        <v>0</v>
-      </c>
-      <c r="R210" s="6">
-        <v>1</v>
-      </c>
-      <c r="S210" s="6">
-        <v>1</v>
-      </c>
-      <c r="T210" s="6">
-        <v>0</v>
-      </c>
-      <c r="U210" s="6">
-        <v>22</v>
-      </c>
-      <c r="V210" s="6">
-        <v>22</v>
-      </c>
-      <c r="W210" s="6">
-        <v>0</v>
-      </c>
-      <c r="X210" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y210" s="6">
-        <v>2</v>
       </c>
       <c r="Z210" s="6">
         <v>0</v>
@@ -20648,55 +20674,55 @@
         <v>39</v>
       </c>
       <c r="I211" s="6">
-        <v>765</v>
+        <v>710</v>
       </c>
       <c r="J211" s="6">
-        <v>765</v>
+        <v>710</v>
       </c>
       <c r="K211" s="6">
         <v>0</v>
       </c>
       <c r="L211" s="6">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="M211" s="6">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="N211" s="6">
         <v>0</v>
       </c>
       <c r="O211" s="6">
-        <v>563</v>
+        <v>485</v>
       </c>
       <c r="P211" s="6">
-        <v>563</v>
+        <v>485</v>
       </c>
       <c r="Q211" s="6">
         <v>0</v>
       </c>
       <c r="R211" s="6">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="S211" s="6">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="T211" s="6">
         <v>0</v>
       </c>
       <c r="U211" s="6">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="V211" s="6">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="W211" s="6">
         <v>0</v>
       </c>
       <c r="X211" s="6">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="Y211" s="6">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="Z211" s="6">
         <v>0</v>
@@ -20738,10 +20764,10 @@
         <v>39</v>
       </c>
       <c r="I212" s="6">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="J212" s="6">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="K212" s="6">
         <v>0</v>
@@ -20756,10 +20782,10 @@
         <v>10</v>
       </c>
       <c r="O212" s="6">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="P212" s="6">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="Q212" s="6">
         <v>0</v>
@@ -20826,55 +20852,55 @@
         <v>39</v>
       </c>
       <c r="I213" s="6">
-        <v>650</v>
+        <v>602</v>
       </c>
       <c r="J213" s="6">
-        <v>650</v>
+        <v>602</v>
       </c>
       <c r="K213" s="6">
         <v>0</v>
       </c>
       <c r="L213" s="6">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="M213" s="6">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="N213" s="6">
         <v>0</v>
       </c>
       <c r="O213" s="6">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="P213" s="6">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="Q213" s="6">
         <v>0</v>
       </c>
       <c r="R213" s="6">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="S213" s="6">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="T213" s="6">
         <v>0</v>
       </c>
       <c r="U213" s="6">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="V213" s="6">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="W213" s="6">
         <v>0</v>
       </c>
       <c r="X213" s="6">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="Y213" s="6">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="Z213" s="6">
         <v>0</v>
@@ -20916,37 +20942,37 @@
         <v>39</v>
       </c>
       <c r="I214" s="6">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J214" s="6">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K214" s="6">
         <v>0</v>
       </c>
       <c r="L214" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M214" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N214" s="6">
         <v>0</v>
       </c>
       <c r="O214" s="6">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P214" s="6">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q214" s="6">
         <v>0</v>
       </c>
       <c r="R214" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S214" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T214" s="6">
         <v>0</v>
@@ -21094,37 +21120,37 @@
         <v>70</v>
       </c>
       <c r="I216" s="6">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J216" s="6">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K216" s="6">
         <v>10</v>
       </c>
       <c r="L216" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M216" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N216" s="6">
         <v>0</v>
       </c>
       <c r="O216" s="6">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P216" s="6">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q216" s="6">
         <v>10</v>
       </c>
       <c r="R216" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S216" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T216" s="6">
         <v>0</v>
@@ -21184,13 +21210,13 @@
         <v>39</v>
       </c>
       <c r="I217" s="6">
-        <v>827</v>
+        <v>797</v>
       </c>
       <c r="J217" s="6">
-        <v>812</v>
+        <v>772</v>
       </c>
       <c r="K217" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L217" s="6">
         <v>50</v>
@@ -21202,10 +21228,10 @@
         <v>50</v>
       </c>
       <c r="O217" s="6">
-        <v>743</v>
+        <v>703</v>
       </c>
       <c r="P217" s="6">
-        <v>743</v>
+        <v>703</v>
       </c>
       <c r="Q217" s="6">
         <v>0</v>
@@ -21220,13 +21246,13 @@
         <v>0</v>
       </c>
       <c r="U217" s="6">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="V217" s="6">
         <v>69</v>
       </c>
       <c r="W217" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="X217" s="6">
         <v>50</v>
@@ -21452,55 +21478,55 @@
         <v>39</v>
       </c>
       <c r="I220" s="6">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="J220" s="6">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="K220" s="6">
         <v>0</v>
       </c>
       <c r="L220" s="6">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M220" s="6">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N220" s="6">
         <v>0</v>
       </c>
       <c r="O220" s="6">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="P220" s="6">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="Q220" s="6">
         <v>0</v>
       </c>
       <c r="R220" s="6">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S220" s="6">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T220" s="6">
         <v>0</v>
       </c>
       <c r="U220" s="6">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="V220" s="6">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="W220" s="6">
         <v>0</v>
       </c>
       <c r="X220" s="6">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Y220" s="6">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Z220" s="6">
         <v>0</v>
@@ -21649,7 +21675,7 @@
       <c r="N222" s="6">
         <v>0</v>
       </c>
-      <c r="O222" s="12">
+      <c r="O222" s="10">
         <v>4</v>
       </c>
       <c r="P222" s="6">
@@ -21658,7 +21684,7 @@
       <c r="Q222" s="6">
         <v>0</v>
       </c>
-      <c r="R222" s="12">
+      <c r="R222" s="10">
         <v>6</v>
       </c>
       <c r="S222" s="6">
@@ -21722,37 +21748,37 @@
         <v>39</v>
       </c>
       <c r="I223" s="6">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J223" s="6">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K223" s="6">
         <v>0</v>
       </c>
       <c r="L223" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M223" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N223" s="6">
         <v>0</v>
       </c>
       <c r="O223" s="6">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P223" s="6">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q223" s="6">
         <v>0</v>
       </c>
       <c r="R223" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S223" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T223" s="6">
         <v>0</v>
@@ -21812,55 +21838,55 @@
         <v>39</v>
       </c>
       <c r="I224" s="6">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="J224" s="6">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="K224" s="6">
         <v>0</v>
       </c>
       <c r="L224" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M224" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N224" s="6">
         <v>0</v>
       </c>
       <c r="O224" s="6">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P224" s="6">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Q224" s="6">
         <v>0</v>
       </c>
       <c r="R224" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S224" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T224" s="6">
         <v>0</v>
       </c>
       <c r="U224" s="6">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V224" s="6">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W224" s="6">
         <v>0</v>
       </c>
       <c r="X224" s="6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y224" s="6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Z224" s="6">
         <v>0</v>
@@ -22082,37 +22108,37 @@
         <v>39</v>
       </c>
       <c r="I227" s="6">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J227" s="6">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K227" s="6">
         <v>41</v>
       </c>
       <c r="L227" s="6">
-        <v>0</v>
-      </c>
-      <c r="M227" s="7">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M227" s="6">
+        <v>5</v>
       </c>
       <c r="N227" s="6">
         <v>0</v>
       </c>
       <c r="O227" s="6">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P227" s="6">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q227" s="6">
         <v>0</v>
       </c>
       <c r="R227" s="6">
-        <v>0</v>
-      </c>
-      <c r="S227" s="7">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S227" s="6">
+        <v>5</v>
       </c>
       <c r="T227" s="6">
         <v>0</v>
@@ -22170,37 +22196,37 @@
         <v>39</v>
       </c>
       <c r="I228" s="6">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="J228" s="6">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K228" s="6">
         <v>67</v>
       </c>
       <c r="L228" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M228" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N228" s="6">
         <v>0</v>
       </c>
       <c r="O228" s="6">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="P228" s="6">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="Q228" s="6">
         <v>0</v>
       </c>
       <c r="R228" s="6">
-        <v>0</v>
-      </c>
-      <c r="S228" s="7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="S228" s="6">
+        <v>10</v>
       </c>
       <c r="T228" s="6">
         <v>0</v>
@@ -22344,10 +22370,10 @@
         <v>70</v>
       </c>
       <c r="I230" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J230" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K230" s="6">
         <v>5</v>
@@ -22379,14 +22405,16 @@
       <c r="T230" s="6">
         <v>0</v>
       </c>
-      <c r="U230" s="12">
-        <v>0</v>
-      </c>
-      <c r="V230" s="9"/>
+      <c r="U230" s="10">
+        <v>1</v>
+      </c>
+      <c r="V230" s="6">
+        <v>1</v>
+      </c>
       <c r="W230" s="6">
         <v>0</v>
       </c>
-      <c r="X230" s="12">
+      <c r="X230" s="10">
         <v>1</v>
       </c>
       <c r="Y230" s="6">
@@ -22432,22 +22460,22 @@
         <v>39</v>
       </c>
       <c r="I231" s="6">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J231" s="6">
         <v>146</v>
       </c>
       <c r="K231" s="6">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L231" s="6">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M231" s="7">
         <v>0</v>
       </c>
       <c r="N231" s="6">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O231" s="6">
         <v>76</v>
@@ -22468,36 +22496,28 @@
         <v>20</v>
       </c>
       <c r="U231" s="6">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="V231" s="6">
         <v>70</v>
       </c>
       <c r="W231" s="6">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="X231" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Y231" s="7">
         <v>0</v>
       </c>
       <c r="Z231" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA231" s="6">
-        <v>5</v>
-      </c>
-      <c r="AB231" s="13">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="AA231" s="8"/>
+      <c r="AB231" s="8"/>
       <c r="AC231" s="4"/>
-      <c r="AD231" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE231" s="14">
-        <v>2</v>
-      </c>
+      <c r="AD231" s="4"/>
+      <c r="AE231" s="4"/>
       <c r="AF231" s="4"/>
       <c r="AG231" s="4"/>
       <c r="AH231" s="4"/>
@@ -22706,37 +22726,37 @@
         <v>39</v>
       </c>
       <c r="I234" s="6">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J234" s="6">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K234" s="6">
         <v>0</v>
       </c>
       <c r="L234" s="6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M234" s="6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N234" s="6">
         <v>0</v>
       </c>
       <c r="O234" s="6">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P234" s="6">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q234" s="6">
         <v>0</v>
       </c>
       <c r="R234" s="6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S234" s="6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="T234" s="6">
         <v>0</v>
@@ -22783,7 +22803,7 @@
       <c r="D235" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E235" s="11" t="s">
+      <c r="E235" s="12" t="s">
         <v>341</v>
       </c>
       <c r="F235" s="4" t="s">
@@ -22795,69 +22815,79 @@
       <c r="H235" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I235" s="12">
-        <v>114</v>
+      <c r="I235" s="10">
+        <v>108</v>
       </c>
       <c r="J235" s="6">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K235" s="6">
         <v>0</v>
       </c>
-      <c r="L235" s="12">
-        <v>117</v>
+      <c r="L235" s="10">
+        <v>122</v>
       </c>
       <c r="M235" s="6">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="N235" s="6">
         <v>0</v>
       </c>
-      <c r="O235" s="12">
-        <v>32</v>
+      <c r="O235" s="10">
+        <v>30</v>
       </c>
       <c r="P235" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q235" s="6">
         <v>0</v>
       </c>
-      <c r="R235" s="12">
+      <c r="R235" s="10">
+        <v>80</v>
+      </c>
+      <c r="S235" s="6">
+        <v>80</v>
+      </c>
+      <c r="T235" s="6">
+        <v>0</v>
+      </c>
+      <c r="U235" s="6">
         <v>78</v>
       </c>
-      <c r="S235" s="6">
+      <c r="V235" s="6">
         <v>78</v>
       </c>
-      <c r="T235" s="6">
-        <v>0</v>
-      </c>
-      <c r="U235" s="6">
-        <v>82</v>
-      </c>
-      <c r="V235" s="6">
-        <v>82</v>
-      </c>
       <c r="W235" s="6">
         <v>0</v>
       </c>
       <c r="X235" s="6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y235" s="6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z235" s="6">
         <v>0</v>
       </c>
-      <c r="AA235" s="8"/>
-      <c r="AB235" s="8"/>
+      <c r="AA235" s="6">
+        <v>8</v>
+      </c>
+      <c r="AB235" s="13">
+        <v>3</v>
+      </c>
       <c r="AC235" s="4"/>
       <c r="AD235" s="4"/>
       <c r="AE235" s="4"/>
       <c r="AF235" s="4"/>
-      <c r="AG235" s="4"/>
-      <c r="AH235" s="4"/>
-      <c r="AI235" s="4"/>
+      <c r="AG235" s="14">
+        <v>11</v>
+      </c>
+      <c r="AH235" s="14">
+        <v>12</v>
+      </c>
+      <c r="AI235" s="14">
+        <v>13</v>
+      </c>
       <c r="AJ235" s="4"/>
     </row>
     <row r="236" spans="1:36" ht="22" customHeight="1" x14ac:dyDescent="0.15">
@@ -22886,37 +22916,37 @@
         <v>39</v>
       </c>
       <c r="I236" s="6">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="J236" s="6">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="K236" s="6">
         <v>43</v>
       </c>
       <c r="L236" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M236" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N236" s="6">
         <v>0</v>
       </c>
       <c r="O236" s="6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="P236" s="6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Q236" s="6">
         <v>0</v>
       </c>
       <c r="R236" s="6">
-        <v>0</v>
-      </c>
-      <c r="S236" s="7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="S236" s="6">
+        <v>10</v>
       </c>
       <c r="T236" s="6">
         <v>0</v>
@@ -22939,12 +22969,24 @@
       <c r="Z236" s="6">
         <v>0</v>
       </c>
-      <c r="AA236" s="8"/>
-      <c r="AB236" s="8"/>
-      <c r="AC236" s="4"/>
-      <c r="AD236" s="4"/>
-      <c r="AE236" s="4"/>
-      <c r="AF236" s="4"/>
+      <c r="AA236" s="6">
+        <v>12</v>
+      </c>
+      <c r="AB236" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC236" s="15">
+        <v>7</v>
+      </c>
+      <c r="AD236" s="15">
+        <v>8</v>
+      </c>
+      <c r="AE236" s="15">
+        <v>9</v>
+      </c>
+      <c r="AF236" s="14">
+        <v>10</v>
+      </c>
       <c r="AG236" s="4"/>
       <c r="AH236" s="4"/>
       <c r="AI236" s="4"/>
@@ -23156,74 +23198,66 @@
         <v>55</v>
       </c>
       <c r="I239" s="6">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="J239" s="6">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="K239" s="6">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L239" s="6">
-        <v>17</v>
-      </c>
-      <c r="M239" s="7">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="M239" s="6">
+        <v>32</v>
       </c>
       <c r="N239" s="6">
-        <v>17</v>
-      </c>
-      <c r="O239" s="6">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="O239" s="10">
+        <v>28</v>
       </c>
       <c r="P239" s="6">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="Q239" s="6">
         <v>0</v>
       </c>
-      <c r="R239" s="6">
-        <v>15</v>
-      </c>
-      <c r="S239" s="7">
-        <v>0</v>
+      <c r="R239" s="10">
+        <v>45</v>
+      </c>
+      <c r="S239" s="6">
+        <v>30</v>
       </c>
       <c r="T239" s="6">
         <v>15</v>
       </c>
       <c r="U239" s="6">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="V239" s="6">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W239" s="6">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="X239" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y239" s="6">
         <v>2</v>
       </c>
-      <c r="Y239" s="7">
-        <v>0</v>
-      </c>
       <c r="Z239" s="6">
-        <v>2</v>
-      </c>
-      <c r="AA239" s="6">
-        <v>5</v>
-      </c>
-      <c r="AB239" s="13">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AA239" s="8"/>
+      <c r="AB239" s="8"/>
       <c r="AC239" s="4"/>
       <c r="AD239" s="4"/>
       <c r="AE239" s="4"/>
-      <c r="AF239" s="14">
-        <v>3</v>
-      </c>
-      <c r="AG239" s="14">
-        <v>4</v>
-      </c>
+      <c r="AF239" s="4"/>
+      <c r="AG239" s="4"/>
       <c r="AH239" s="4"/>
       <c r="AI239" s="4"/>
       <c r="AJ239" s="4"/>
@@ -23342,37 +23376,37 @@
         <v>39</v>
       </c>
       <c r="I241" s="6">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="J241" s="6">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K241" s="6">
         <v>0</v>
       </c>
       <c r="L241" s="6">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M241" s="6">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N241" s="6">
         <v>0</v>
       </c>
       <c r="O241" s="6">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="P241" s="6">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Q241" s="6">
         <v>0</v>
       </c>
       <c r="R241" s="6">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S241" s="6">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="T241" s="6">
         <v>0</v>
@@ -23419,7 +23453,7 @@
       <c r="D242" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E242" s="11" t="s">
+      <c r="E242" s="4" t="s">
         <v>348</v>
       </c>
       <c r="F242" s="4" t="s">
@@ -23431,56 +23465,56 @@
       <c r="H242" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I242" s="12">
-        <v>99</v>
+      <c r="I242" s="6">
+        <v>641</v>
       </c>
       <c r="J242" s="6">
-        <v>99</v>
+        <v>641</v>
       </c>
       <c r="K242" s="6">
         <v>0</v>
       </c>
-      <c r="L242" s="12">
-        <v>121</v>
+      <c r="L242" s="6">
+        <v>136</v>
       </c>
       <c r="M242" s="6">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="N242" s="6">
         <v>0</v>
       </c>
-      <c r="O242" s="12">
-        <v>20</v>
+      <c r="O242" s="6">
+        <v>576</v>
       </c>
       <c r="P242" s="6">
-        <v>20</v>
+        <v>576</v>
       </c>
       <c r="Q242" s="6">
         <v>0</v>
       </c>
-      <c r="R242" s="12">
-        <v>83</v>
+      <c r="R242" s="6">
+        <v>85</v>
       </c>
       <c r="S242" s="6">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T242" s="6">
         <v>0</v>
       </c>
       <c r="U242" s="6">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="V242" s="6">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="W242" s="6">
         <v>0</v>
       </c>
       <c r="X242" s="6">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="Y242" s="6">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="Z242" s="6">
         <v>0</v>
@@ -23612,19 +23646,19 @@
         <v>70</v>
       </c>
       <c r="I244" s="6">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J244" s="6">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K244" s="6">
         <v>1</v>
       </c>
       <c r="L244" s="6">
-        <v>0</v>
-      </c>
-      <c r="M244" s="7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M244" s="6">
+        <v>2</v>
       </c>
       <c r="N244" s="6">
         <v>0</v>
@@ -23648,19 +23682,19 @@
         <v>0</v>
       </c>
       <c r="U244" s="6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V244" s="6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W244" s="6">
         <v>0</v>
       </c>
       <c r="X244" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y244" s="7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y244" s="6">
+        <v>2</v>
       </c>
       <c r="Z244" s="6">
         <v>0</v>
@@ -23701,7 +23735,7 @@
       <c r="H245" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I245" s="10">
+      <c r="I245" s="11">
         <v>1113</v>
       </c>
       <c r="J245" s="6">
@@ -23964,55 +23998,55 @@
         <v>39</v>
       </c>
       <c r="I248" s="6">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J248" s="6">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K248" s="6">
         <v>0</v>
       </c>
       <c r="L248" s="6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M248" s="6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N248" s="6">
         <v>0</v>
       </c>
       <c r="O248" s="6">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P248" s="6">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q248" s="6">
         <v>0</v>
       </c>
       <c r="R248" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S248" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T248" s="6">
         <v>0</v>
       </c>
       <c r="U248" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V248" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W248" s="6">
         <v>0</v>
       </c>
       <c r="X248" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y248" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z248" s="6">
         <v>0</v>
@@ -24054,37 +24088,37 @@
         <v>39</v>
       </c>
       <c r="I249" s="6">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="J249" s="6">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="K249" s="6">
         <v>61</v>
       </c>
       <c r="L249" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M249" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N249" s="6">
         <v>0</v>
       </c>
       <c r="O249" s="6">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="P249" s="6">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="Q249" s="6">
         <v>2</v>
       </c>
       <c r="R249" s="6">
-        <v>0</v>
-      </c>
-      <c r="S249" s="7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="S249" s="6">
+        <v>10</v>
       </c>
       <c r="T249" s="6">
         <v>0</v>
@@ -24586,19 +24620,19 @@
         <v>39</v>
       </c>
       <c r="I255" s="6">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J255" s="6">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K255" s="6">
         <v>0</v>
       </c>
       <c r="L255" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M255" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N255" s="6">
         <v>0</v>
@@ -24622,19 +24656,19 @@
         <v>0</v>
       </c>
       <c r="U255" s="6">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="V255" s="6">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W255" s="6">
         <v>0</v>
       </c>
       <c r="X255" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y255" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z255" s="6">
         <v>0</v>
@@ -24676,37 +24710,37 @@
         <v>39</v>
       </c>
       <c r="I256" s="6">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J256" s="6">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K256" s="6">
         <v>20</v>
       </c>
       <c r="L256" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M256" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N256" s="6">
         <v>0</v>
       </c>
       <c r="O256" s="6">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="P256" s="6">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q256" s="6">
         <v>0</v>
       </c>
       <c r="R256" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S256" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T256" s="6">
         <v>0</v>
@@ -24942,19 +24976,19 @@
         <v>39</v>
       </c>
       <c r="I259" s="6">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J259" s="6">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K259" s="6">
         <v>0</v>
       </c>
       <c r="L259" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M259" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N259" s="6">
         <v>0</v>
@@ -24978,19 +25012,19 @@
         <v>0</v>
       </c>
       <c r="U259" s="6">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V259" s="6">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W259" s="6">
         <v>0</v>
       </c>
       <c r="X259" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y259" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z259" s="6">
         <v>0</v>
@@ -25049,14 +25083,14 @@
       <c r="N260" s="6">
         <v>14</v>
       </c>
-      <c r="O260" s="12">
+      <c r="O260" s="10">
         <v>0</v>
       </c>
       <c r="P260" s="9"/>
       <c r="Q260" s="6">
         <v>0</v>
       </c>
-      <c r="R260" s="12">
+      <c r="R260" s="10">
         <v>10</v>
       </c>
       <c r="S260" s="7">
@@ -25083,15 +25117,9 @@
       <c r="Z260" s="6">
         <v>4</v>
       </c>
-      <c r="AA260" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB260" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC260" s="15">
-        <v>31</v>
-      </c>
+      <c r="AA260" s="8"/>
+      <c r="AB260" s="8"/>
+      <c r="AC260" s="4"/>
       <c r="AD260" s="4"/>
       <c r="AE260" s="4"/>
       <c r="AF260" s="4"/>
@@ -25214,40 +25242,40 @@
         <v>93</v>
       </c>
       <c r="I262" s="6">
-        <v>817</v>
+        <v>727</v>
       </c>
       <c r="J262" s="6">
-        <v>746</v>
+        <v>656</v>
       </c>
       <c r="K262" s="6">
         <v>71</v>
       </c>
       <c r="L262" s="6">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="M262" s="6">
         <v>12</v>
       </c>
       <c r="N262" s="6">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="O262" s="6">
-        <v>599</v>
+        <v>509</v>
       </c>
       <c r="P262" s="6">
-        <v>599</v>
+        <v>509</v>
       </c>
       <c r="Q262" s="6">
         <v>0</v>
       </c>
       <c r="R262" s="6">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="S262" s="7">
         <v>0</v>
       </c>
       <c r="T262" s="6">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="U262" s="6">
         <v>218</v>
@@ -25394,37 +25422,37 @@
         <v>70</v>
       </c>
       <c r="I264" s="6">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J264" s="6">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K264" s="6">
         <v>10</v>
       </c>
       <c r="L264" s="6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M264" s="6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N264" s="6">
         <v>0</v>
       </c>
       <c r="O264" s="6">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P264" s="6">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="Q264" s="6">
         <v>10</v>
       </c>
       <c r="R264" s="6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="S264" s="6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="T264" s="6">
         <v>0</v>
@@ -25483,41 +25511,41 @@
       <c r="H265" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I265" s="10">
+      <c r="I265" s="11">
         <v>1545</v>
       </c>
-      <c r="J265" s="10">
+      <c r="J265" s="11">
         <v>1443</v>
       </c>
       <c r="K265" s="6">
         <v>102</v>
       </c>
       <c r="L265" s="6">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="M265" s="6">
         <v>105</v>
       </c>
       <c r="N265" s="6">
-        <v>49</v>
-      </c>
-      <c r="O265" s="10">
+        <v>89</v>
+      </c>
+      <c r="O265" s="11">
         <v>1204</v>
       </c>
-      <c r="P265" s="10">
+      <c r="P265" s="11">
         <v>1204</v>
       </c>
       <c r="Q265" s="6">
         <v>0</v>
       </c>
       <c r="R265" s="6">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="S265" s="6">
         <v>105</v>
       </c>
       <c r="T265" s="6">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="U265" s="6">
         <v>341</v>
@@ -25574,46 +25602,46 @@
         <v>39</v>
       </c>
       <c r="I266" s="6">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="J266" s="6">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="K266" s="6">
         <v>10</v>
       </c>
       <c r="L266" s="6">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M266" s="6">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N266" s="6">
         <v>0</v>
       </c>
       <c r="O266" s="6">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="P266" s="6">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="Q266" s="6">
         <v>10</v>
       </c>
       <c r="R266" s="6">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="S266" s="6">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="T266" s="6">
         <v>0</v>
       </c>
       <c r="U266" s="6">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="V266" s="6">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="W266" s="6">
         <v>0</v>
@@ -25663,56 +25691,56 @@
       <c r="H267" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I267" s="10">
-        <v>2247</v>
-      </c>
-      <c r="J267" s="10">
-        <v>2237</v>
+      <c r="I267" s="11">
+        <v>2146</v>
+      </c>
+      <c r="J267" s="11">
+        <v>2136</v>
       </c>
       <c r="K267" s="6">
         <v>10</v>
       </c>
       <c r="L267" s="6">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="M267" s="6">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="N267" s="6">
         <v>0</v>
       </c>
-      <c r="O267" s="10">
-        <v>1394</v>
-      </c>
-      <c r="P267" s="10">
-        <v>1384</v>
+      <c r="O267" s="11">
+        <v>1312</v>
+      </c>
+      <c r="P267" s="11">
+        <v>1302</v>
       </c>
       <c r="Q267" s="6">
         <v>10</v>
       </c>
       <c r="R267" s="6">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="S267" s="6">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="T267" s="6">
         <v>0</v>
       </c>
       <c r="U267" s="6">
-        <v>853</v>
+        <v>834</v>
       </c>
       <c r="V267" s="6">
-        <v>853</v>
+        <v>834</v>
       </c>
       <c r="W267" s="6">
         <v>0</v>
       </c>
       <c r="X267" s="6">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="Y267" s="6">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="Z267" s="6">
         <v>0</v>
@@ -25753,59 +25781,59 @@
       <c r="H268" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I268" s="10">
-        <v>1085</v>
-      </c>
-      <c r="J268" s="10">
-        <v>1012</v>
+      <c r="I268" s="6">
+        <v>855</v>
+      </c>
+      <c r="J268" s="6">
+        <v>802</v>
       </c>
       <c r="K268" s="6">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="L268" s="6">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="M268" s="6">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="N268" s="6">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="O268" s="6">
-        <v>514</v>
+        <v>324</v>
       </c>
       <c r="P268" s="6">
-        <v>514</v>
+        <v>324</v>
       </c>
       <c r="Q268" s="6">
         <v>0</v>
       </c>
       <c r="R268" s="6">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="S268" s="6">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="T268" s="6">
+        <v>105</v>
+      </c>
+      <c r="U268" s="6">
+        <v>531</v>
+      </c>
+      <c r="V268" s="6">
+        <v>478</v>
+      </c>
+      <c r="W268" s="6">
+        <v>53</v>
+      </c>
+      <c r="X268" s="6">
+        <v>57</v>
+      </c>
+      <c r="Y268" s="6">
         <v>25</v>
       </c>
-      <c r="U268" s="6">
-        <v>571</v>
-      </c>
-      <c r="V268" s="6">
-        <v>498</v>
-      </c>
-      <c r="W268" s="6">
-        <v>73</v>
-      </c>
-      <c r="X268" s="6">
-        <v>17</v>
-      </c>
-      <c r="Y268" s="6">
-        <v>5</v>
-      </c>
       <c r="Z268" s="6">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AA268" s="8"/>
       <c r="AB268" s="8"/>
@@ -26019,23 +26047,23 @@
       <c r="H271" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I271" s="10">
-        <v>1490</v>
-      </c>
-      <c r="J271" s="10">
+      <c r="I271" s="11">
+        <v>1480</v>
+      </c>
+      <c r="J271" s="11">
         <v>1399</v>
       </c>
       <c r="K271" s="6">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L271" s="6">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="M271" s="6">
         <v>415</v>
       </c>
       <c r="N271" s="6">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O271" s="6">
         <v>933</v>
@@ -26056,22 +26084,22 @@
         <v>110</v>
       </c>
       <c r="U271" s="6">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="V271" s="6">
         <v>468</v>
       </c>
       <c r="W271" s="6">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="X271" s="6">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y271" s="6">
         <v>5</v>
       </c>
       <c r="Z271" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA271" s="8"/>
       <c r="AB271" s="8"/>
@@ -26193,38 +26221,38 @@
       <c r="H273" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I273" s="10">
-        <v>1614</v>
-      </c>
-      <c r="J273" s="10">
-        <v>1614</v>
+      <c r="I273" s="11">
+        <v>1540</v>
+      </c>
+      <c r="J273" s="11">
+        <v>1540</v>
       </c>
       <c r="K273" s="6">
         <v>0</v>
       </c>
       <c r="L273" s="6">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="M273" s="6">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="N273" s="6">
         <v>0</v>
       </c>
-      <c r="O273" s="10">
-        <v>1117</v>
-      </c>
-      <c r="P273" s="10">
-        <v>1117</v>
+      <c r="O273" s="11">
+        <v>1043</v>
+      </c>
+      <c r="P273" s="11">
+        <v>1043</v>
       </c>
       <c r="Q273" s="6">
         <v>0</v>
       </c>
       <c r="R273" s="6">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="S273" s="6">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="T273" s="6">
         <v>0</v>
@@ -26283,56 +26311,56 @@
       <c r="H274" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I274" s="10">
-        <v>6098</v>
-      </c>
-      <c r="J274" s="10">
-        <v>6098</v>
+      <c r="I274" s="11">
+        <v>6959</v>
+      </c>
+      <c r="J274" s="11">
+        <v>6959</v>
       </c>
       <c r="K274" s="6">
         <v>0</v>
       </c>
-      <c r="L274" s="10">
-        <v>1222</v>
-      </c>
-      <c r="M274" s="10">
-        <v>1222</v>
+      <c r="L274" s="11">
+        <v>1513</v>
+      </c>
+      <c r="M274" s="11">
+        <v>1513</v>
       </c>
       <c r="N274" s="6">
         <v>0</v>
       </c>
-      <c r="O274" s="10">
-        <v>4261</v>
-      </c>
-      <c r="P274" s="10">
-        <v>4261</v>
+      <c r="O274" s="11">
+        <v>5111</v>
+      </c>
+      <c r="P274" s="11">
+        <v>5111</v>
       </c>
       <c r="Q274" s="6">
         <v>0</v>
       </c>
       <c r="R274" s="6">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="S274" s="6">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="T274" s="6">
         <v>0</v>
       </c>
-      <c r="U274" s="10">
-        <v>1837</v>
-      </c>
-      <c r="V274" s="10">
-        <v>1837</v>
+      <c r="U274" s="11">
+        <v>1848</v>
+      </c>
+      <c r="V274" s="11">
+        <v>1848</v>
       </c>
       <c r="W274" s="6">
         <v>0</v>
       </c>
-      <c r="X274" s="6">
-        <v>961</v>
-      </c>
-      <c r="Y274" s="6">
-        <v>961</v>
+      <c r="X274" s="11">
+        <v>1194</v>
+      </c>
+      <c r="Y274" s="11">
+        <v>1194</v>
       </c>
       <c r="Z274" s="6">
         <v>0</v>
@@ -27354,37 +27382,37 @@
         <v>39</v>
       </c>
       <c r="I286" s="6">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="J286" s="6">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="K286" s="6">
         <v>91</v>
       </c>
       <c r="L286" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M286" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N286" s="6">
         <v>0</v>
       </c>
       <c r="O286" s="6">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="P286" s="6">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="Q286" s="6">
         <v>0</v>
       </c>
       <c r="R286" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="S286" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T286" s="6">
         <v>0</v>
@@ -27543,10 +27571,10 @@
         <v>0</v>
       </c>
       <c r="L288" s="6">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M288" s="6">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N288" s="6">
         <v>0</v>
@@ -27579,10 +27607,10 @@
         <v>0</v>
       </c>
       <c r="X288" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y288" s="6">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Y288" s="7">
+        <v>0</v>
       </c>
       <c r="Z288" s="6">
         <v>0</v>
@@ -27624,37 +27652,37 @@
         <v>39</v>
       </c>
       <c r="I289" s="6">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="J289" s="6">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="K289" s="6">
         <v>83</v>
       </c>
       <c r="L289" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M289" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N289" s="6">
         <v>5</v>
       </c>
       <c r="O289" s="6">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="P289" s="6">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="Q289" s="6">
         <v>0</v>
       </c>
       <c r="R289" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S289" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T289" s="6">
         <v>0</v>
@@ -27804,37 +27832,37 @@
         <v>39</v>
       </c>
       <c r="I291" s="6">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J291" s="6">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K291" s="6">
         <v>10</v>
       </c>
       <c r="L291" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M291" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N291" s="6">
         <v>0</v>
       </c>
       <c r="O291" s="6">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="P291" s="6">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q291" s="6">
         <v>10</v>
       </c>
       <c r="R291" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S291" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T291" s="6">
         <v>0</v>
@@ -27894,55 +27922,55 @@
         <v>39</v>
       </c>
       <c r="I292" s="6">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="J292" s="6">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="K292" s="6">
         <v>4</v>
       </c>
       <c r="L292" s="6">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="M292" s="6">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="N292" s="6">
         <v>0</v>
       </c>
       <c r="O292" s="6">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P292" s="6">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q292" s="6">
         <v>4</v>
       </c>
       <c r="R292" s="6">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S292" s="6">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T292" s="6">
         <v>0</v>
       </c>
       <c r="U292" s="6">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="V292" s="6">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="W292" s="6">
         <v>0</v>
       </c>
       <c r="X292" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Y292" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Z292" s="6">
         <v>0</v>
@@ -27984,49 +28012,49 @@
         <v>39</v>
       </c>
       <c r="I293" s="6">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="J293" s="6">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="K293" s="6">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L293" s="6">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M293" s="6">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N293" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O293" s="6">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="P293" s="6">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="Q293" s="6">
         <v>8</v>
       </c>
       <c r="R293" s="6">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S293" s="6">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="T293" s="6">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="U293" s="6">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="V293" s="6">
         <v>188</v>
       </c>
       <c r="W293" s="6">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="X293" s="6">
         <v>10</v>
@@ -28074,77 +28102,65 @@
         <v>39</v>
       </c>
       <c r="I294" s="6">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="J294" s="6">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="K294" s="6">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="L294" s="6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M294" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N294" s="6">
-        <v>0</v>
-      </c>
-      <c r="O294" s="12">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="O294" s="6">
+        <v>118</v>
       </c>
       <c r="P294" s="6">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="Q294" s="6">
         <v>0</v>
       </c>
-      <c r="R294" s="12">
-        <v>25</v>
+      <c r="R294" s="6">
+        <v>35</v>
       </c>
       <c r="S294" s="6">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="T294" s="6">
         <v>0</v>
       </c>
       <c r="U294" s="6">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="V294" s="6">
         <v>163</v>
       </c>
       <c r="W294" s="6">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="X294" s="6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Y294" s="6">
         <v>5</v>
       </c>
       <c r="Z294" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA294" s="6">
-        <v>12</v>
-      </c>
-      <c r="AB294" s="13">
-        <v>4</v>
-      </c>
-      <c r="AC294" s="15">
-        <v>31</v>
-      </c>
-      <c r="AD294" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE294" s="14">
-        <v>2</v>
-      </c>
-      <c r="AF294" s="14">
-        <v>3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AA294" s="8"/>
+      <c r="AB294" s="8"/>
+      <c r="AC294" s="4"/>
+      <c r="AD294" s="4"/>
+      <c r="AE294" s="4"/>
+      <c r="AF294" s="4"/>
       <c r="AG294" s="4"/>
       <c r="AH294" s="4"/>
       <c r="AI294" s="4"/>
@@ -28264,40 +28280,40 @@
         <v>39</v>
       </c>
       <c r="I296" s="6">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="J296" s="6">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="K296" s="6">
         <v>105</v>
       </c>
       <c r="L296" s="6">
-        <v>37</v>
-      </c>
-      <c r="M296" s="7">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="M296" s="6">
+        <v>10</v>
       </c>
       <c r="N296" s="6">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O296" s="6">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="P296" s="6">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="Q296" s="6">
         <v>3</v>
       </c>
       <c r="R296" s="6">
-        <v>35</v>
-      </c>
-      <c r="S296" s="7">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="S296" s="6">
+        <v>10</v>
       </c>
       <c r="T296" s="6">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="U296" s="6">
         <v>288</v>
@@ -28317,9 +28333,15 @@
       <c r="Z296" s="6">
         <v>2</v>
       </c>
-      <c r="AA296" s="8"/>
-      <c r="AB296" s="8"/>
-      <c r="AC296" s="4"/>
+      <c r="AA296" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB296" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC296" s="15">
+        <v>7</v>
+      </c>
       <c r="AD296" s="4"/>
       <c r="AE296" s="4"/>
       <c r="AF296" s="4"/>
@@ -28442,37 +28464,37 @@
         <v>39</v>
       </c>
       <c r="I298" s="6">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J298" s="6">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="K298" s="6">
         <v>0</v>
       </c>
       <c r="L298" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M298" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N298" s="6">
         <v>0</v>
       </c>
       <c r="O298" s="6">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="P298" s="6">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="Q298" s="6">
         <v>0</v>
       </c>
       <c r="R298" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S298" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T298" s="6">
         <v>0</v>
@@ -28531,56 +28553,56 @@
       <c r="H299" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I299" s="10">
-        <v>1210</v>
-      </c>
-      <c r="J299" s="10">
-        <v>1210</v>
+      <c r="I299" s="11">
+        <v>1171</v>
+      </c>
+      <c r="J299" s="11">
+        <v>1171</v>
       </c>
       <c r="K299" s="6">
         <v>0</v>
       </c>
       <c r="L299" s="6">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="M299" s="6">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="N299" s="6">
         <v>0</v>
       </c>
       <c r="O299" s="6">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="P299" s="6">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="Q299" s="6">
         <v>0</v>
       </c>
       <c r="R299" s="6">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="S299" s="6">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="T299" s="6">
         <v>0</v>
       </c>
       <c r="U299" s="6">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="V299" s="6">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="W299" s="6">
         <v>0</v>
       </c>
       <c r="X299" s="6">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="Y299" s="6">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="Z299" s="6">
         <v>0</v>
@@ -28622,58 +28644,58 @@
         <v>39</v>
       </c>
       <c r="I300" s="6">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="J300" s="6">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="K300" s="6">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L300" s="6">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="M300" s="6">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N300" s="6">
-        <v>5</v>
-      </c>
-      <c r="O300" s="6">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="O300" s="10">
+        <v>17</v>
       </c>
       <c r="P300" s="6">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="Q300" s="6">
         <v>0</v>
       </c>
-      <c r="R300" s="6">
-        <v>20</v>
+      <c r="R300" s="10">
+        <v>40</v>
       </c>
       <c r="S300" s="6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="T300" s="6">
         <v>5</v>
       </c>
       <c r="U300" s="6">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="V300" s="6">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="W300" s="6">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="X300" s="6">
+        <v>40</v>
+      </c>
+      <c r="Y300" s="6">
+        <v>30</v>
+      </c>
+      <c r="Z300" s="6">
         <v>10</v>
-      </c>
-      <c r="Y300" s="6">
-        <v>10</v>
-      </c>
-      <c r="Z300" s="6">
-        <v>0</v>
       </c>
       <c r="AA300" s="8"/>
       <c r="AB300" s="8"/>
@@ -28729,14 +28751,14 @@
       <c r="N301" s="6">
         <v>6</v>
       </c>
-      <c r="O301" s="12">
+      <c r="O301" s="10">
         <v>4</v>
       </c>
       <c r="P301" s="9"/>
       <c r="Q301" s="6">
         <v>4</v>
       </c>
-      <c r="R301" s="12">
+      <c r="R301" s="10">
         <v>6</v>
       </c>
       <c r="S301" s="7">
@@ -28763,21 +28785,11 @@
       <c r="Z301" s="6">
         <v>0</v>
       </c>
-      <c r="AA301" s="6">
-        <v>8</v>
-      </c>
-      <c r="AB301" s="13">
-        <v>3</v>
-      </c>
-      <c r="AC301" s="15">
-        <v>31</v>
-      </c>
-      <c r="AD301" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE301" s="14">
-        <v>2</v>
-      </c>
+      <c r="AA301" s="8"/>
+      <c r="AB301" s="8"/>
+      <c r="AC301" s="4"/>
+      <c r="AD301" s="4"/>
+      <c r="AE301" s="4"/>
       <c r="AF301" s="4"/>
       <c r="AG301" s="4"/>
       <c r="AH301" s="4"/>
@@ -28986,28 +28998,28 @@
         <v>39</v>
       </c>
       <c r="I304" s="6">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J304" s="6">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="K304" s="6">
         <v>0</v>
       </c>
       <c r="L304" s="6">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M304" s="6">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N304" s="6">
         <v>0</v>
       </c>
       <c r="O304" s="6">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="P304" s="6">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="Q304" s="6">
         <v>0</v>
@@ -29022,19 +29034,19 @@
         <v>0</v>
       </c>
       <c r="U304" s="6">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="V304" s="6">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="W304" s="6">
         <v>0</v>
       </c>
       <c r="X304" s="6">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Y304" s="6">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Z304" s="6">
         <v>0</v>
@@ -29076,10 +29088,10 @@
         <v>39</v>
       </c>
       <c r="I305" s="6">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="J305" s="6">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K305" s="6">
         <v>6</v>
@@ -29094,10 +29106,10 @@
         <v>0</v>
       </c>
       <c r="O305" s="6">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="P305" s="6">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="Q305" s="6">
         <v>0</v>
@@ -29694,37 +29706,37 @@
         <v>39</v>
       </c>
       <c r="I312" s="6">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="J312" s="6">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="K312" s="6">
         <v>68</v>
       </c>
       <c r="L312" s="6">
-        <v>0</v>
-      </c>
-      <c r="M312" s="7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="M312" s="6">
+        <v>10</v>
       </c>
       <c r="N312" s="6">
         <v>0</v>
       </c>
       <c r="O312" s="6">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="P312" s="6">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="Q312" s="6">
         <v>0</v>
       </c>
       <c r="R312" s="6">
-        <v>0</v>
-      </c>
-      <c r="S312" s="7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="S312" s="6">
+        <v>10</v>
       </c>
       <c r="T312" s="6">
         <v>0</v>
@@ -29874,37 +29886,37 @@
         <v>39</v>
       </c>
       <c r="I314" s="6">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="J314" s="6">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="K314" s="6">
         <v>43</v>
       </c>
       <c r="L314" s="6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M314" s="6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N314" s="6">
         <v>0</v>
       </c>
       <c r="O314" s="6">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="P314" s="6">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q314" s="6">
         <v>1</v>
       </c>
       <c r="R314" s="6">
-        <v>0</v>
-      </c>
-      <c r="S314" s="7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="S314" s="6">
+        <v>10</v>
       </c>
       <c r="T314" s="6">
         <v>0</v>
@@ -30228,10 +30240,10 @@
         <v>39</v>
       </c>
       <c r="I318" s="6">
-        <v>93</v>
+        <v>522</v>
       </c>
       <c r="J318" s="6">
-        <v>29</v>
+        <v>458</v>
       </c>
       <c r="K318" s="6">
         <v>64</v>
@@ -30246,9 +30258,11 @@
         <v>5</v>
       </c>
       <c r="O318" s="6">
-        <v>2</v>
-      </c>
-      <c r="P318" s="9"/>
+        <v>431</v>
+      </c>
+      <c r="P318" s="6">
+        <v>429</v>
+      </c>
       <c r="Q318" s="6">
         <v>2</v>
       </c>
@@ -30406,19 +30420,19 @@
         <v>39</v>
       </c>
       <c r="I320" s="6">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J320" s="6">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K320" s="6">
         <v>0</v>
       </c>
       <c r="L320" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M320" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N320" s="6">
         <v>0</v>
@@ -30442,19 +30456,19 @@
         <v>0</v>
       </c>
       <c r="U320" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V320" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W320" s="6">
         <v>0</v>
       </c>
       <c r="X320" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y320" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z320" s="6">
         <v>0</v>
@@ -30584,58 +30598,58 @@
         <v>70</v>
       </c>
       <c r="I322" s="6">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="J322" s="6">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="K322" s="6">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L322" s="6">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M322" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N322" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O322" s="6">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="P322" s="6">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="Q322" s="6">
         <v>2</v>
       </c>
       <c r="R322" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="S322" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T322" s="6">
         <v>0</v>
       </c>
       <c r="U322" s="6">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="V322" s="6">
         <v>216</v>
       </c>
       <c r="W322" s="6">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="X322" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Y322" s="6">
         <v>15</v>
       </c>
       <c r="Z322" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA322" s="8"/>
       <c r="AB322" s="8"/>
@@ -30674,37 +30688,37 @@
         <v>39</v>
       </c>
       <c r="I323" s="6">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J323" s="6">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K323" s="6">
         <v>0</v>
       </c>
       <c r="L323" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M323" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N323" s="6">
         <v>0</v>
       </c>
       <c r="O323" s="6">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P323" s="6">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q323" s="6">
         <v>0</v>
       </c>
       <c r="R323" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S323" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T323" s="6">
         <v>0</v>
@@ -30764,55 +30778,55 @@
         <v>39</v>
       </c>
       <c r="I324" s="6">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="J324" s="6">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="K324" s="6">
         <v>0</v>
       </c>
       <c r="L324" s="6">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="M324" s="6">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="N324" s="6">
         <v>0</v>
       </c>
-      <c r="O324" s="6">
-        <v>144</v>
+      <c r="O324" s="10">
+        <v>123</v>
       </c>
       <c r="P324" s="6">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="Q324" s="6">
         <v>0</v>
       </c>
-      <c r="R324" s="6">
-        <v>125</v>
+      <c r="R324" s="10">
+        <v>146</v>
       </c>
       <c r="S324" s="6">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="T324" s="6">
         <v>0</v>
       </c>
       <c r="U324" s="6">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="V324" s="6">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="W324" s="6">
         <v>0</v>
       </c>
       <c r="X324" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Y324" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Z324" s="6">
         <v>0</v>
@@ -30854,37 +30868,37 @@
         <v>39</v>
       </c>
       <c r="I325" s="6">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="J325" s="6">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K325" s="6">
         <v>49</v>
       </c>
       <c r="L325" s="6">
-        <v>0</v>
-      </c>
-      <c r="M325" s="7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="M325" s="6">
+        <v>10</v>
       </c>
       <c r="N325" s="6">
         <v>0</v>
       </c>
       <c r="O325" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P325" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q325" s="6">
         <v>0</v>
       </c>
       <c r="R325" s="6">
-        <v>0</v>
-      </c>
-      <c r="S325" s="7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="S325" s="6">
+        <v>10</v>
       </c>
       <c r="T325" s="6">
         <v>0</v>
@@ -30953,46 +30967,46 @@
         <v>12</v>
       </c>
       <c r="L326" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M326" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N326" s="6">
         <v>0</v>
       </c>
       <c r="O326" s="6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P326" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q326" s="6">
         <v>12</v>
       </c>
       <c r="R326" s="6">
-        <v>0</v>
-      </c>
-      <c r="S326" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S326" s="6">
+        <v>1</v>
       </c>
       <c r="T326" s="6">
         <v>0</v>
       </c>
       <c r="U326" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V326" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W326" s="6">
         <v>0</v>
       </c>
       <c r="X326" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y326" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z326" s="6">
         <v>0</v>
@@ -31034,37 +31048,37 @@
         <v>70</v>
       </c>
       <c r="I327" s="6">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="J327" s="6">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K327" s="6">
         <v>107</v>
       </c>
       <c r="L327" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M327" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N327" s="6">
         <v>0</v>
       </c>
       <c r="O327" s="6">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P327" s="6">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="Q327" s="6">
         <v>1</v>
       </c>
       <c r="R327" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S327" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T327" s="6">
         <v>0</v>
@@ -31111,7 +31125,7 @@
       <c r="D328" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E328" s="4" t="s">
+      <c r="E328" s="12" t="s">
         <v>451</v>
       </c>
       <c r="F328" s="4" t="s">
@@ -31123,38 +31137,34 @@
       <c r="H328" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I328" s="6">
+      <c r="I328" s="10">
+        <v>0</v>
+      </c>
+      <c r="J328" s="9"/>
+      <c r="K328" s="6">
+        <v>0</v>
+      </c>
+      <c r="L328" s="10">
         <v>1</v>
       </c>
-      <c r="J328" s="6">
+      <c r="M328" s="6">
         <v>1</v>
       </c>
-      <c r="K328" s="6">
-        <v>0</v>
-      </c>
-      <c r="L328" s="6">
-        <v>0</v>
-      </c>
-      <c r="M328" s="7">
-        <v>0</v>
-      </c>
       <c r="N328" s="6">
         <v>0</v>
       </c>
-      <c r="O328" s="6">
+      <c r="O328" s="10">
+        <v>0</v>
+      </c>
+      <c r="P328" s="9"/>
+      <c r="Q328" s="6">
+        <v>0</v>
+      </c>
+      <c r="R328" s="10">
         <v>1</v>
       </c>
-      <c r="P328" s="6">
+      <c r="S328" s="6">
         <v>1</v>
-      </c>
-      <c r="Q328" s="6">
-        <v>0</v>
-      </c>
-      <c r="R328" s="6">
-        <v>0</v>
-      </c>
-      <c r="S328" s="7">
-        <v>0</v>
       </c>
       <c r="T328" s="6">
         <v>0</v>
@@ -31302,37 +31312,37 @@
         <v>39</v>
       </c>
       <c r="I330" s="6">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="J330" s="6">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K330" s="6">
         <v>0</v>
       </c>
       <c r="L330" s="6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M330" s="6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N330" s="6">
         <v>0</v>
       </c>
       <c r="O330" s="6">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="P330" s="6">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="Q330" s="6">
         <v>0</v>
       </c>
       <c r="R330" s="6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="S330" s="6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="T330" s="6">
         <v>0</v>
@@ -31567,10 +31577,10 @@
       <c r="H333" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I333" s="10">
+      <c r="I333" s="11">
         <v>1194</v>
       </c>
-      <c r="J333" s="10">
+      <c r="J333" s="11">
         <v>1194</v>
       </c>
       <c r="K333" s="6">
@@ -31585,10 +31595,10 @@
       <c r="N333" s="6">
         <v>0</v>
       </c>
-      <c r="O333" s="10">
+      <c r="O333" s="11">
         <v>1181</v>
       </c>
-      <c r="P333" s="10">
+      <c r="P333" s="11">
         <v>1181</v>
       </c>
       <c r="Q333" s="6">
@@ -31658,55 +31668,55 @@
         <v>39</v>
       </c>
       <c r="I334" s="6">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="J334" s="6">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K334" s="6">
         <v>0</v>
       </c>
       <c r="L334" s="6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M334" s="6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N334" s="6">
         <v>0</v>
       </c>
       <c r="O334" s="6">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P334" s="6">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q334" s="6">
         <v>0</v>
       </c>
       <c r="R334" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S334" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T334" s="6">
         <v>0</v>
       </c>
       <c r="U334" s="6">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="V334" s="6">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="W334" s="6">
         <v>0</v>
       </c>
       <c r="X334" s="6">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Y334" s="6">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Z334" s="6">
         <v>0</v>
@@ -31748,58 +31758,58 @@
         <v>39</v>
       </c>
       <c r="I335" s="6">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="J335" s="6">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="K335" s="6">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L335" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M335" s="7">
         <v>0</v>
       </c>
       <c r="N335" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O335" s="6">
+        <v>191</v>
+      </c>
+      <c r="P335" s="6">
+        <v>191</v>
+      </c>
+      <c r="Q335" s="6">
+        <v>0</v>
+      </c>
+      <c r="R335" s="6">
+        <v>0</v>
+      </c>
+      <c r="S335" s="7">
+        <v>0</v>
+      </c>
+      <c r="T335" s="6">
+        <v>0</v>
+      </c>
+      <c r="U335" s="6">
         <v>211</v>
-      </c>
-      <c r="P335" s="6">
-        <v>211</v>
-      </c>
-      <c r="Q335" s="6">
-        <v>0</v>
-      </c>
-      <c r="R335" s="6">
-        <v>0</v>
-      </c>
-      <c r="S335" s="7">
-        <v>0</v>
-      </c>
-      <c r="T335" s="6">
-        <v>0</v>
-      </c>
-      <c r="U335" s="6">
-        <v>214</v>
       </c>
       <c r="V335" s="6">
         <v>38</v>
       </c>
       <c r="W335" s="6">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="X335" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y335" s="7">
         <v>0</v>
       </c>
       <c r="Z335" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA335" s="8"/>
       <c r="AB335" s="8"/>
